--- a/FIG-2022-Score-Comparison.xlsx
+++ b/FIG-2022-Score-Comparison.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>Av Vault</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Floor Finals</t>
   </si>
   <si>
-    <t xml:space="preserve">Floor </t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
     <t>Junior WAG Beam Final</t>
   </si>
   <si>
-    <t>Senior WAG Beam AA</t>
-  </si>
-  <si>
-    <t>Junior WAG Beam AA</t>
-  </si>
-  <si>
     <t>Overall - WAG</t>
   </si>
   <si>
@@ -134,13 +125,35 @@
   </si>
   <si>
     <t>2019: https://www.gymdata.co.uk/events/download-documents.aspx?eid=912</t>
+  </si>
+  <si>
+    <t>Senior WAG
+Beam Final</t>
+  </si>
+  <si>
+    <t>NOT AVAILABLE</t>
+  </si>
+  <si>
+    <t>MAG Senior Floor</t>
+  </si>
+  <si>
+    <t>MAG Junior Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior WAG Beam </t>
+  </si>
+  <si>
+    <t>Junior WAG Beam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +197,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -221,12 +239,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -238,7 +271,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,6 +296,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -551,13 +587,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
@@ -634,7 +674,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -664,12 +704,12 @@
         <v>2022</v>
       </c>
       <c r="H17" s="1">
-        <v>20022</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -713,6 +753,12 @@
       <c r="B21">
         <v>12.9</v>
       </c>
+      <c r="D21">
+        <v>13.55</v>
+      </c>
+      <c r="E21">
+        <v>12.95</v>
+      </c>
       <c r="G21">
         <v>13.8</v>
       </c>
@@ -727,6 +773,12 @@
       <c r="B22">
         <v>12.534000000000001</v>
       </c>
+      <c r="D22">
+        <v>13.2</v>
+      </c>
+      <c r="E22">
+        <v>12.7</v>
+      </c>
       <c r="G22">
         <v>13.05</v>
       </c>
@@ -741,6 +793,12 @@
       <c r="B23">
         <v>12.467000000000001</v>
       </c>
+      <c r="D23">
+        <v>13.45</v>
+      </c>
+      <c r="E23">
+        <v>11.85</v>
+      </c>
       <c r="G23">
         <v>12.45</v>
       </c>
@@ -755,6 +813,12 @@
       <c r="B24">
         <v>12.266999999999999</v>
       </c>
+      <c r="D24">
+        <v>13.35</v>
+      </c>
+      <c r="E24">
+        <v>11.95</v>
+      </c>
       <c r="G24">
         <v>13.05</v>
       </c>
@@ -769,6 +833,12 @@
       <c r="B25">
         <v>12.534000000000001</v>
       </c>
+      <c r="D25">
+        <v>13.15</v>
+      </c>
+      <c r="E25">
+        <v>12.45</v>
+      </c>
       <c r="G25">
         <v>11.65</v>
       </c>
@@ -783,6 +853,12 @@
       <c r="B26">
         <v>11.266999999999999</v>
       </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>11.45</v>
+      </c>
       <c r="G26">
         <v>11.5</v>
       </c>
@@ -797,6 +873,12 @@
       <c r="B27">
         <v>12.567</v>
       </c>
+      <c r="D27">
+        <v>12.5</v>
+      </c>
+      <c r="E27">
+        <v>12.25</v>
+      </c>
       <c r="G27">
         <v>11.95</v>
       </c>
@@ -811,6 +893,12 @@
       <c r="B28">
         <v>12.5</v>
       </c>
+      <c r="D28">
+        <v>12.4</v>
+      </c>
+      <c r="E28">
+        <v>11.7</v>
+      </c>
       <c r="G28">
         <v>12.2</v>
       </c>
@@ -825,6 +913,12 @@
       <c r="B29">
         <v>11.034000000000001</v>
       </c>
+      <c r="D29">
+        <v>12.7</v>
+      </c>
+      <c r="E29">
+        <v>12.1</v>
+      </c>
       <c r="G29">
         <v>12.05</v>
       </c>
@@ -839,6 +933,12 @@
       <c r="B30">
         <v>11.266999999999999</v>
       </c>
+      <c r="D30">
+        <v>11.9</v>
+      </c>
+      <c r="E30">
+        <v>12.8</v>
+      </c>
       <c r="G30">
         <v>11.85</v>
       </c>
@@ -853,6 +953,12 @@
       <c r="B31">
         <v>12.5</v>
       </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>12.35</v>
+      </c>
       <c r="G31">
         <v>11.2</v>
       </c>
@@ -867,6 +973,12 @@
       <c r="B32">
         <v>12.2</v>
       </c>
+      <c r="D32">
+        <v>12.4</v>
+      </c>
+      <c r="E32">
+        <v>11.05</v>
+      </c>
       <c r="G32">
         <v>12.6</v>
       </c>
@@ -881,6 +993,12 @@
       <c r="B33">
         <v>11.4</v>
       </c>
+      <c r="D33">
+        <v>11.8</v>
+      </c>
+      <c r="E33">
+        <v>11.5</v>
+      </c>
       <c r="G33">
         <v>11.7</v>
       </c>
@@ -892,6 +1010,9 @@
       <c r="B34">
         <v>12.2</v>
       </c>
+      <c r="D34">
+        <v>12.25</v>
+      </c>
       <c r="G34">
         <v>11.55</v>
       </c>
@@ -903,6 +1024,9 @@
       <c r="B35">
         <v>11.034000000000001</v>
       </c>
+      <c r="D35">
+        <v>10.6</v>
+      </c>
       <c r="G35">
         <v>11.95</v>
       </c>
@@ -913,6 +1037,9 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>10.9</v>
+      </c>
+      <c r="D36">
+        <v>12.35</v>
       </c>
       <c r="G36">
         <v>11.7</v>
@@ -1005,8 +1132,12 @@
         <v>0</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>16</v>
@@ -1022,6 +1153,12 @@
       <c r="B46">
         <v>12.525</v>
       </c>
+      <c r="D46">
+        <v>12.95</v>
+      </c>
+      <c r="E46">
+        <v>12.55</v>
+      </c>
       <c r="G46">
         <v>12.867000000000001</v>
       </c>
@@ -1036,6 +1173,12 @@
       <c r="B47">
         <v>12.525</v>
       </c>
+      <c r="D47">
+        <v>12.725</v>
+      </c>
+      <c r="E47">
+        <v>12.45</v>
+      </c>
       <c r="G47">
         <v>12.417</v>
       </c>
@@ -1050,6 +1193,12 @@
       <c r="B48">
         <v>12.375</v>
       </c>
+      <c r="D48">
+        <v>12.7</v>
+      </c>
+      <c r="E48">
+        <v>12.275</v>
+      </c>
       <c r="G48">
         <v>12.284000000000001</v>
       </c>
@@ -1064,6 +1213,12 @@
       <c r="B49">
         <v>12.35</v>
       </c>
+      <c r="D49">
+        <v>12.65</v>
+      </c>
+      <c r="E49">
+        <v>12.25</v>
+      </c>
       <c r="G49">
         <v>12.266999999999999</v>
       </c>
@@ -1078,6 +1233,12 @@
       <c r="B50">
         <v>12.35</v>
       </c>
+      <c r="D50">
+        <v>12.525</v>
+      </c>
+      <c r="E50">
+        <v>12.175000000000001</v>
+      </c>
       <c r="G50">
         <v>11.85</v>
       </c>
@@ -1092,6 +1253,12 @@
       <c r="B51">
         <v>12.275</v>
       </c>
+      <c r="D51">
+        <v>11.35</v>
+      </c>
+      <c r="E51">
+        <v>12.1</v>
+      </c>
       <c r="G51">
         <v>11.516999999999999</v>
       </c>
@@ -1106,6 +1273,9 @@
       <c r="B52">
         <v>12.275</v>
       </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
       <c r="G52">
         <v>11.266999999999999</v>
       </c>
@@ -1119,6 +1289,9 @@
       </c>
       <c r="B53">
         <v>12.125</v>
+      </c>
+      <c r="E53">
+        <v>5.9249999999999998</v>
       </c>
       <c r="G53">
         <v>6.3</v>
@@ -1170,22 +1343,36 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2018</v>
+      </c>
+      <c r="D59">
+        <v>2019</v>
+      </c>
+      <c r="G59">
+        <v>2022</v>
+      </c>
+    </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,6 +1382,12 @@
       <c r="B61">
         <v>12.4</v>
       </c>
+      <c r="D61">
+        <v>13.2</v>
+      </c>
+      <c r="E61">
+        <v>12.5</v>
+      </c>
       <c r="G61">
         <v>12.4</v>
       </c>
@@ -1209,6 +1402,12 @@
       <c r="B62">
         <v>12</v>
       </c>
+      <c r="D62">
+        <v>13.05</v>
+      </c>
+      <c r="E62">
+        <v>12.2</v>
+      </c>
       <c r="G62">
         <v>12.2</v>
       </c>
@@ -1223,6 +1422,12 @@
       <c r="B63">
         <v>11.85</v>
       </c>
+      <c r="D63">
+        <v>11.6</v>
+      </c>
+      <c r="E63">
+        <v>12.1</v>
+      </c>
       <c r="G63">
         <v>11.867000000000001</v>
       </c>
@@ -1237,6 +1442,12 @@
       <c r="B64">
         <v>11.3</v>
       </c>
+      <c r="D64">
+        <v>11.35</v>
+      </c>
+      <c r="E64">
+        <v>12.1</v>
+      </c>
       <c r="G64">
         <v>11.867000000000001</v>
       </c>
@@ -1251,6 +1462,12 @@
       <c r="B65">
         <v>10.95</v>
       </c>
+      <c r="D65">
+        <v>11.05</v>
+      </c>
+      <c r="E65">
+        <v>11.3</v>
+      </c>
       <c r="G65">
         <v>11.6</v>
       </c>
@@ -1265,6 +1482,12 @@
       <c r="B66">
         <v>10.85</v>
       </c>
+      <c r="D66">
+        <v>11.05</v>
+      </c>
+      <c r="E66">
+        <v>11.25</v>
+      </c>
       <c r="G66">
         <v>10.967000000000001</v>
       </c>
@@ -1279,6 +1502,12 @@
       <c r="B67">
         <v>10.75</v>
       </c>
+      <c r="D67">
+        <v>10.6</v>
+      </c>
+      <c r="E67">
+        <v>10.3</v>
+      </c>
       <c r="G67">
         <v>10.9</v>
       </c>
@@ -1293,6 +1522,12 @@
       <c r="B68">
         <v>10</v>
       </c>
+      <c r="D68">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E68">
+        <v>10.15</v>
+      </c>
       <c r="G68">
         <v>10.199999999999999</v>
       </c>
@@ -1307,19 +1542,23 @@
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G73" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,6 +1568,12 @@
       <c r="B74">
         <v>11</v>
       </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>12.2</v>
+      </c>
       <c r="G74">
         <v>13.25</v>
       </c>
@@ -1343,6 +1588,12 @@
       <c r="B75">
         <v>11.45</v>
       </c>
+      <c r="D75">
+        <v>12.8</v>
+      </c>
+      <c r="E75">
+        <v>12.25</v>
+      </c>
       <c r="G75">
         <v>12.15</v>
       </c>
@@ -1357,6 +1608,12 @@
       <c r="B76">
         <v>11.2</v>
       </c>
+      <c r="D76">
+        <v>11.75</v>
+      </c>
+      <c r="E76">
+        <v>11.7</v>
+      </c>
       <c r="G76">
         <v>12.95</v>
       </c>
@@ -1371,6 +1628,12 @@
       <c r="B77">
         <v>11.35</v>
       </c>
+      <c r="D77">
+        <v>11.75</v>
+      </c>
+      <c r="E77">
+        <v>12.4</v>
+      </c>
       <c r="G77">
         <v>10.050000000000001</v>
       </c>
@@ -1385,6 +1648,12 @@
       <c r="B78">
         <v>11.55</v>
       </c>
+      <c r="D78">
+        <v>11.1</v>
+      </c>
+      <c r="E78">
+        <v>10.85</v>
+      </c>
       <c r="G78">
         <v>12.3</v>
       </c>
@@ -1399,6 +1668,12 @@
       <c r="B79">
         <v>11.25</v>
       </c>
+      <c r="D79">
+        <v>11.9</v>
+      </c>
+      <c r="E79">
+        <v>11.85</v>
+      </c>
       <c r="G79">
         <v>11.55</v>
       </c>
@@ -1413,6 +1688,12 @@
       <c r="B80">
         <v>9.1</v>
       </c>
+      <c r="D80">
+        <v>11.3</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
       <c r="G80">
         <v>10.35</v>
       </c>
@@ -1427,6 +1708,12 @@
       <c r="B81">
         <v>11.1</v>
       </c>
+      <c r="D81">
+        <v>12.15</v>
+      </c>
+      <c r="E81">
+        <v>11.5</v>
+      </c>
       <c r="G81">
         <v>11.35</v>
       </c>
@@ -1441,6 +1728,12 @@
       <c r="B82">
         <v>11.7</v>
       </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>10.1</v>
+      </c>
       <c r="G82">
         <v>10.6</v>
       </c>
@@ -1455,6 +1748,12 @@
       <c r="B83">
         <v>11.75</v>
       </c>
+      <c r="D83">
+        <v>12.35</v>
+      </c>
+      <c r="E83">
+        <v>9.6</v>
+      </c>
       <c r="G83">
         <v>11.2</v>
       </c>
@@ -1469,6 +1768,12 @@
       <c r="B84">
         <v>10.050000000000001</v>
       </c>
+      <c r="D84">
+        <v>10.45</v>
+      </c>
+      <c r="E84">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="G84">
         <v>11.2</v>
       </c>
@@ -1483,6 +1788,12 @@
       <c r="B85">
         <v>9.75</v>
       </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>7.7</v>
+      </c>
       <c r="G85">
         <v>9.4</v>
       </c>
@@ -1497,6 +1808,12 @@
       <c r="B86">
         <v>10.35</v>
       </c>
+      <c r="D86">
+        <v>10.65</v>
+      </c>
+      <c r="E86">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="G86">
         <v>11.05</v>
       </c>
@@ -1511,6 +1828,12 @@
       <c r="B87">
         <v>10.95</v>
       </c>
+      <c r="D87">
+        <v>11.35</v>
+      </c>
+      <c r="E87">
+        <v>12.4</v>
+      </c>
       <c r="G87">
         <v>9.65</v>
       </c>
@@ -1525,6 +1848,12 @@
       <c r="B88">
         <v>9.1</v>
       </c>
+      <c r="D88">
+        <v>10.5</v>
+      </c>
+      <c r="E88">
+        <v>9.85</v>
+      </c>
       <c r="G88">
         <v>11.2</v>
       </c>
@@ -1536,6 +1865,9 @@
       <c r="B89">
         <v>9.1999999999999993</v>
       </c>
+      <c r="D89">
+        <v>9.35</v>
+      </c>
       <c r="G89">
         <v>10.199999999999999</v>
       </c>
@@ -1547,6 +1879,9 @@
       <c r="B90">
         <v>10.25</v>
       </c>
+      <c r="D90">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="G90">
         <v>10.4</v>
       </c>
@@ -1607,7 +1942,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1619,19 +1954,23 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="D99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G99" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,6 +1980,12 @@
       <c r="B100">
         <v>47.1</v>
       </c>
+      <c r="D100">
+        <v>50.45</v>
+      </c>
+      <c r="E100">
+        <v>48.5</v>
+      </c>
       <c r="G100">
         <v>52.5</v>
       </c>
@@ -1655,6 +2000,12 @@
       <c r="B101">
         <v>46.484000000000002</v>
       </c>
+      <c r="D101">
+        <v>50.15</v>
+      </c>
+      <c r="E101">
+        <v>47.95</v>
+      </c>
       <c r="G101">
         <v>48.3</v>
       </c>
@@ -1669,6 +2020,12 @@
       <c r="B102">
         <v>45.466999999999999</v>
       </c>
+      <c r="D102">
+        <v>49.35</v>
+      </c>
+      <c r="E102">
+        <v>45.65</v>
+      </c>
       <c r="G102">
         <v>48.05</v>
       </c>
@@ -1683,6 +2040,12 @@
       <c r="B103">
         <v>45.267000000000003</v>
       </c>
+      <c r="D103">
+        <v>48.6</v>
+      </c>
+      <c r="E103">
+        <v>44.95</v>
+      </c>
       <c r="G103">
         <v>46.75</v>
       </c>
@@ -1697,6 +2060,12 @@
       <c r="B104">
         <v>44.933999999999997</v>
       </c>
+      <c r="D104">
+        <v>48.55</v>
+      </c>
+      <c r="E104">
+        <v>44.25</v>
+      </c>
       <c r="G104">
         <v>45.7</v>
       </c>
@@ -1711,6 +2080,12 @@
       <c r="B105">
         <v>44.917000000000002</v>
       </c>
+      <c r="D105">
+        <v>47.85</v>
+      </c>
+      <c r="E105">
+        <v>43.65</v>
+      </c>
       <c r="G105">
         <v>43.6</v>
       </c>
@@ -1725,6 +2100,12 @@
       <c r="B106">
         <v>43.366999999999997</v>
       </c>
+      <c r="D106">
+        <v>46.95</v>
+      </c>
+      <c r="E106">
+        <v>42.05</v>
+      </c>
       <c r="G106">
         <v>43.15</v>
       </c>
@@ -1739,6 +2120,12 @@
       <c r="B107">
         <v>43</v>
       </c>
+      <c r="D107">
+        <v>46.85</v>
+      </c>
+      <c r="E107">
+        <v>41.95</v>
+      </c>
       <c r="G107">
         <v>42.15</v>
       </c>
@@ -1753,6 +2140,12 @@
       <c r="B108">
         <v>42.634</v>
       </c>
+      <c r="D108">
+        <v>45.55</v>
+      </c>
+      <c r="E108">
+        <v>41</v>
+      </c>
       <c r="G108">
         <v>42.05</v>
       </c>
@@ -1767,6 +2160,12 @@
       <c r="B109">
         <v>42.616999999999997</v>
       </c>
+      <c r="D109">
+        <v>45.45</v>
+      </c>
+      <c r="E109">
+        <v>39.200000000000003</v>
+      </c>
       <c r="G109">
         <v>41.95</v>
       </c>
@@ -1781,6 +2180,12 @@
       <c r="B110">
         <v>42.2</v>
       </c>
+      <c r="D110">
+        <v>44.5</v>
+      </c>
+      <c r="E110">
+        <v>39.049999999999997</v>
+      </c>
       <c r="G110">
         <v>41.6</v>
       </c>
@@ -1795,6 +2200,12 @@
       <c r="B111">
         <v>41.85</v>
       </c>
+      <c r="D111">
+        <v>44.45</v>
+      </c>
+      <c r="E111">
+        <v>37.950000000000003</v>
+      </c>
       <c r="G111">
         <v>41.5</v>
       </c>
@@ -1806,6 +2217,12 @@
       <c r="B112">
         <v>40.35</v>
       </c>
+      <c r="D112">
+        <v>44.35</v>
+      </c>
+      <c r="E112">
+        <v>37.799999999999997</v>
+      </c>
       <c r="G112">
         <v>41.45</v>
       </c>
@@ -1817,6 +2234,9 @@
       <c r="B113">
         <v>37.799999999999997</v>
       </c>
+      <c r="D113">
+        <v>42.95</v>
+      </c>
       <c r="G113">
         <v>40.15</v>
       </c>
@@ -1827,6 +2247,9 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>37.634</v>
+      </c>
+      <c r="D114">
+        <v>41.7</v>
       </c>
       <c r="G114">
         <v>35.15</v>
@@ -1905,12 +2328,16 @@
     </row>
     <row r="130" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
+      <c r="D130" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F130" s="7"/>
       <c r="G130" s="7" t="s">
         <v>19</v>
@@ -1919,32 +2346,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
+      <c r="D131" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F131" s="7"/>
       <c r="G131" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>13.625</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
+      <c r="D132" s="13">
+        <v>12.85</v>
+      </c>
+      <c r="E132" s="13">
+        <v>12.45</v>
+      </c>
       <c r="F132" s="7"/>
       <c r="G132" s="7">
         <v>13.775</v>
@@ -1953,14 +2388,18 @@
         <v>12.574999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>12.6</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
+      <c r="D133" s="13">
+        <v>12.55</v>
+      </c>
+      <c r="E133" s="13">
+        <v>11.875</v>
+      </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7">
         <v>13.574999999999999</v>
@@ -1969,14 +2408,18 @@
         <v>12.574999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>11.6</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
+      <c r="D134" s="13">
+        <v>11.225</v>
+      </c>
+      <c r="E134" s="13">
+        <v>11.4</v>
+      </c>
       <c r="F134" s="7"/>
       <c r="G134" s="7">
         <v>13.4</v>
@@ -2056,24 +2499,36 @@
       <c r="H143" s="5"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G144" s="1"/>
+      <c r="A144" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G144" s="1">
+        <v>2022</v>
+      </c>
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G145" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -2084,8 +2539,12 @@
         <v>6</v>
       </c>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G146" s="1" t="s">
         <v>6</v>
       </c>
@@ -2100,6 +2559,12 @@
       <c r="B147">
         <v>12.65</v>
       </c>
+      <c r="D147">
+        <v>14.5</v>
+      </c>
+      <c r="E147">
+        <v>14.1</v>
+      </c>
       <c r="G147">
         <v>13.75</v>
       </c>
@@ -2114,6 +2579,12 @@
       <c r="B148">
         <v>12.75</v>
       </c>
+      <c r="D148">
+        <v>13.25</v>
+      </c>
+      <c r="E148">
+        <v>14.1</v>
+      </c>
       <c r="G148">
         <v>13.9</v>
       </c>
@@ -2128,6 +2599,12 @@
       <c r="B149">
         <v>13.7</v>
       </c>
+      <c r="D149">
+        <v>13.65</v>
+      </c>
+      <c r="E149">
+        <v>11.7</v>
+      </c>
       <c r="G149">
         <v>13.3</v>
       </c>
@@ -2142,6 +2619,12 @@
       <c r="B150">
         <v>11.1</v>
       </c>
+      <c r="D150">
+        <v>11.9</v>
+      </c>
+      <c r="E150">
+        <v>12.2</v>
+      </c>
       <c r="G150">
         <v>13.5</v>
       </c>
@@ -2153,6 +2636,12 @@
       <c r="A151">
         <v>13.25</v>
       </c>
+      <c r="D151">
+        <v>12.95</v>
+      </c>
+      <c r="E151">
+        <v>10.65</v>
+      </c>
       <c r="G151">
         <v>13.4</v>
       </c>
@@ -2161,6 +2650,12 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>13.25</v>
+      </c>
+      <c r="E152">
+        <v>11.85</v>
+      </c>
       <c r="G152">
         <v>13.75</v>
       </c>
@@ -2192,7 +2687,6 @@
       <c r="G156">
         <v>13.95</v>
       </c>
-      <c r="H156" s="5"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G157" s="5">
@@ -2217,8 +2711,12 @@
         <v>20</v>
       </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G162" s="1" t="s">
         <v>19</v>
       </c>
@@ -2234,8 +2732,12 @@
         <v>21</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G163" s="1" t="s">
         <v>21</v>
       </c>
@@ -2248,7 +2750,13 @@
         <v>14.5</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="D164">
+        <v>14.25</v>
+      </c>
+      <c r="E164">
+        <v>13.05</v>
       </c>
       <c r="G164">
         <v>13.45</v>
@@ -2262,7 +2770,13 @@
         <v>13.9</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D165">
+        <v>13.35</v>
+      </c>
+      <c r="E165">
+        <v>13.05</v>
       </c>
       <c r="G165">
         <v>13.45</v>
@@ -2276,7 +2790,13 @@
         <v>12.7</v>
       </c>
       <c r="B166" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D166">
+        <v>13.05</v>
+      </c>
+      <c r="E166">
+        <v>12.65</v>
       </c>
       <c r="G166">
         <v>11.4</v>
@@ -2290,7 +2810,13 @@
         <v>12.3</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D167">
+        <v>8.75</v>
+      </c>
+      <c r="E167">
+        <v>11.45</v>
       </c>
       <c r="G167">
         <v>12.85</v>
@@ -2304,7 +2830,10 @@
         <v>11.5</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E168">
+        <v>10.95</v>
       </c>
       <c r="G168">
         <v>12.25</v>
@@ -2318,7 +2847,10 @@
         <v>10.15</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E169">
+        <v>10.7</v>
       </c>
       <c r="G169">
         <v>10.5</v>
@@ -2328,6 +2860,9 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H170">
         <v>10.55</v>
       </c>
@@ -2339,19 +2874,23 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G173" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -2361,6 +2900,12 @@
       <c r="B174">
         <v>13.5</v>
       </c>
+      <c r="D174">
+        <v>13.55</v>
+      </c>
+      <c r="E174">
+        <v>11.6</v>
+      </c>
       <c r="G174">
         <v>13.45</v>
       </c>
@@ -2375,6 +2920,12 @@
       <c r="B175">
         <v>12.4</v>
       </c>
+      <c r="D175">
+        <v>12.5</v>
+      </c>
+      <c r="E175">
+        <v>13.05</v>
+      </c>
       <c r="G175">
         <v>13.1</v>
       </c>
@@ -2389,6 +2940,12 @@
       <c r="B176">
         <v>12.7</v>
       </c>
+      <c r="D176">
+        <v>14.1</v>
+      </c>
+      <c r="E176">
+        <v>12.65</v>
+      </c>
       <c r="G176">
         <v>13.15</v>
       </c>
@@ -2403,6 +2960,12 @@
       <c r="B177">
         <v>8.5</v>
       </c>
+      <c r="D177">
+        <v>12.65</v>
+      </c>
+      <c r="E177">
+        <v>10.65</v>
+      </c>
       <c r="G177">
         <v>13.45</v>
       </c>
@@ -2414,6 +2977,12 @@
       <c r="A178">
         <v>13.4</v>
       </c>
+      <c r="D178">
+        <v>11.4</v>
+      </c>
+      <c r="E178">
+        <v>8.9</v>
+      </c>
       <c r="G178">
         <v>12.85</v>
       </c>
@@ -2422,6 +2991,9 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>12.2</v>
+      </c>
       <c r="G179">
         <v>12.7</v>
       </c>
@@ -2544,12 +3116,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/FIG-2022-Score-Comparison.xlsx
+++ b/FIG-2022-Score-Comparison.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="43">
   <si>
     <t>WAG</t>
   </si>
@@ -129,12 +128,6 @@
     <t>NOT AVAILABLE</t>
   </si>
   <si>
-    <t>MAG Senior Floor</t>
-  </si>
-  <si>
-    <t>MAG Junior Floor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Senior WAG Beam </t>
   </si>
   <si>
@@ -166,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +205,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -276,15 +274,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -313,14 +312,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -598,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE327"/>
+  <dimension ref="A1:AE437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R303" sqref="R303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +620,7 @@
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="11" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -680,13 +685,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="K12" t="s">
-        <v>42</v>
-      </c>
       <c r="AE12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -699,10 +704,10 @@
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -710,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s">
         <v>8</v>
@@ -1164,6 +1169,9 @@
       <c r="Q36">
         <v>14.25</v>
       </c>
+      <c r="R36">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1187,6 +1195,9 @@
       <c r="Q37">
         <v>13.75</v>
       </c>
+      <c r="R37">
+        <v>12.75</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1210,6 +1221,9 @@
       <c r="Q38">
         <v>11.75</v>
       </c>
+      <c r="R38">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1233,6 +1247,9 @@
       <c r="Q39">
         <v>13.7</v>
       </c>
+      <c r="R39">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1256,6 +1273,9 @@
       <c r="Q40">
         <v>13.6</v>
       </c>
+      <c r="R40">
+        <v>12.55</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1279,6 +1299,9 @@
       <c r="Q41">
         <v>13.2</v>
       </c>
+      <c r="R41">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1302,6 +1325,9 @@
       <c r="Q42">
         <v>12.7</v>
       </c>
+      <c r="R42">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1325,6 +1351,9 @@
       <c r="Q43">
         <v>12.9</v>
       </c>
+      <c r="R43">
+        <v>12.35</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1348,6 +1377,9 @@
       <c r="Q44">
         <v>12.85</v>
       </c>
+      <c r="R44">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -1371,6 +1403,9 @@
       <c r="Q45">
         <v>13.1</v>
       </c>
+      <c r="R45">
+        <v>11.65</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -1394,6 +1429,9 @@
       <c r="Q46">
         <v>13.3</v>
       </c>
+      <c r="R46">
+        <v>11.55</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -1417,6 +1455,9 @@
       <c r="Q47">
         <v>12.7</v>
       </c>
+      <c r="R47">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -1440,8 +1481,11 @@
       <c r="Q48">
         <v>12.85</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>12.2</v>
       </c>
@@ -1457,8 +1501,11 @@
       <c r="Q49">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>11.034000000000001</v>
       </c>
@@ -1474,8 +1521,11 @@
       <c r="Q50">
         <v>12.15</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>10.9</v>
       </c>
@@ -1491,8 +1541,11 @@
       <c r="Q51">
         <v>12.15</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>12.467000000000001</v>
       </c>
@@ -1505,8 +1558,11 @@
       <c r="Q52">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>12.45</v>
       </c>
@@ -1516,8 +1572,11 @@
       <c r="Q53">
         <v>12.65</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>12.45</v>
       </c>
@@ -1527,8 +1586,11 @@
       <c r="Q54">
         <v>12.55</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>11.95</v>
       </c>
@@ -1538,16 +1600,22 @@
       <c r="Q55">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>11.5</v>
       </c>
       <c r="Q56">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <f>AVERAGE(A36:A48)</f>
         <v>12.851615384615382</v>
@@ -1570,8 +1638,11 @@
       <c r="Q57">
         <v>12.45</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G58" s="4">
         <f>G57-A57</f>
         <v>-0.71590109890109943</v>
@@ -1583,193 +1654,286 @@
       <c r="Q58">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q59">
         <v>12.75</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q60">
         <v>12.55</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q61">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q62">
         <v>11.95</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q63">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q64">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="65" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q65">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="66" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="66" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q66">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="67" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="67" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q67">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="68" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="68" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q68">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="69" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="69" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q69">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="70" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="70" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q70">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="71" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="71" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q71">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="72" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="72" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q72">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="73" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="73" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q73">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="74" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="74" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q74">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="75" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="75" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q75">
         <v>11.55</v>
       </c>
-    </row>
-    <row r="76" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="76" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q76">
         <v>12.15</v>
       </c>
-    </row>
-    <row r="77" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="77" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q77">
         <v>11.95</v>
       </c>
-    </row>
-    <row r="78" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="78" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q78">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="79" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="79" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q79">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="80" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="80" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q80">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="81" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="81" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q81">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="82" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="82" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q82">
         <v>11.45</v>
       </c>
-    </row>
-    <row r="83" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="83" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q83">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="84" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="84" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q84">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="85" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="85" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q85">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="86" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="86" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q86">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="87" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="87" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q87">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="88" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="88" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q88">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="89" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="89" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q89">
         <v>11.85</v>
       </c>
     </row>
-    <row r="90" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q90">
         <v>11.15</v>
       </c>
     </row>
-    <row r="91" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q91">
         <v>11.05</v>
       </c>
     </row>
-    <row r="92" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q92">
         <v>11.8</v>
       </c>
     </row>
-    <row r="93" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q93">
         <v>11.55</v>
       </c>
     </row>
-    <row r="94" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q94">
         <v>10.4</v>
       </c>
     </row>
-    <row r="95" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q95">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q96">
         <v>10.65</v>
       </c>
@@ -2110,44 +2274,55 @@
         <v>11.7</v>
       </c>
     </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <v>2018</v>
+      </c>
+      <c r="N149">
+        <v>2019</v>
+      </c>
+      <c r="Q149">
+        <v>2022</v>
+      </c>
+    </row>
     <row r="150" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M150" s="6"/>
       <c r="N150" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O150" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q150" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R150" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -2172,6 +2347,9 @@
       <c r="Q151">
         <v>13.1</v>
       </c>
+      <c r="R151">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -2195,6 +2373,9 @@
       <c r="Q152">
         <v>12.75</v>
       </c>
+      <c r="R152">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -2218,6 +2399,9 @@
       <c r="Q153">
         <v>13.75</v>
       </c>
+      <c r="R153">
+        <v>12.35</v>
+      </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -2241,6 +2425,9 @@
       <c r="Q154">
         <v>13.4</v>
       </c>
+      <c r="R154">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -2264,6 +2451,9 @@
       <c r="Q155">
         <v>11.7</v>
       </c>
+      <c r="R155">
+        <v>10.85</v>
+      </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -2287,6 +2477,9 @@
       <c r="Q156">
         <v>13.4</v>
       </c>
+      <c r="R156">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -2310,6 +2503,9 @@
       <c r="Q157">
         <v>11.95</v>
       </c>
+      <c r="R157">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -2333,6 +2529,9 @@
       <c r="Q158">
         <v>11.9</v>
       </c>
+      <c r="R158">
+        <v>10.65</v>
+      </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -2356,6 +2555,9 @@
       <c r="Q159">
         <v>12.25</v>
       </c>
+      <c r="R159">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -2379,8 +2581,11 @@
       <c r="Q160">
         <v>11.55</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10.55</v>
       </c>
@@ -2402,8 +2607,11 @@
       <c r="Q161">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>10.75</v>
       </c>
@@ -2425,8 +2633,11 @@
       <c r="Q162">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>12.75</v>
       </c>
@@ -2448,8 +2659,11 @@
       <c r="Q163">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>11.2</v>
       </c>
@@ -2471,8 +2685,11 @@
       <c r="Q164">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>10.15</v>
       </c>
@@ -2494,8 +2711,11 @@
       <c r="Q165">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>9.1999999999999993</v>
       </c>
@@ -2511,8 +2731,11 @@
       <c r="Q166">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R166">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>10.25</v>
       </c>
@@ -2528,8 +2751,11 @@
       <c r="Q167">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R167">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>11.3</v>
       </c>
@@ -2542,8 +2768,11 @@
       <c r="Q168">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R168">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>7.75</v>
       </c>
@@ -2556,8 +2785,11 @@
       <c r="Q169">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>10.7</v>
       </c>
@@ -2570,8 +2802,11 @@
       <c r="Q170">
         <v>10.15</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R170">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>7.35</v>
       </c>
@@ -2581,194 +2816,293 @@
       <c r="Q171">
         <v>11.05</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G172">
         <v>11.15</v>
       </c>
       <c r="Q172">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G173">
         <v>11.15</v>
       </c>
       <c r="Q173">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q174">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R174">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q175">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R175">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q176">
         <v>11.05</v>
       </c>
-    </row>
-    <row r="177" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R176">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="177" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q177">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="178" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R177">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="178" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q178">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="179" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R178">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="179" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q179">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="180" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R179">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="180" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q180">
         <v>10.050000000000001</v>
       </c>
-    </row>
-    <row r="181" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R180">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="181" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q181">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="182" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R181">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="182" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q182">
         <v>11.15</v>
       </c>
-    </row>
-    <row r="183" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R182">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="183" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q183">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="184" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R183">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="184" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q184">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="185" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R184">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="185" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q185">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="186" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R185">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="186" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q186">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="187" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R186">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="187" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q187">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="188" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R187">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="188" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q188">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="189" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R188">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="189" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q189">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="190" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R189">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="190" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q190">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="191" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q191">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="192" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R191">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="192" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q192">
         <v>9.5500000000000007</v>
       </c>
-    </row>
-    <row r="193" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R192">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="193" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q193">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="194" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R193">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="194" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q194">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="195" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R194">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="195" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q195">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="196" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R195">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="196" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q196">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="197" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R196">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="197" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q197">
         <v>9.4499999999999993</v>
       </c>
-    </row>
-    <row r="198" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R197">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="198" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q198">
         <v>12.65</v>
       </c>
-    </row>
-    <row r="199" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R198">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="199" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q199">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="200" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R199">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="200" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q200">
         <v>10.65</v>
       </c>
-    </row>
-    <row r="201" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R200">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="201" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q201">
         <v>7</v>
       </c>
-    </row>
-    <row r="202" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R201">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="202" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q202">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="203" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R202">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="203" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q203">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="204" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="R203">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="204" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q204">
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="205" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q205">
         <v>9.85</v>
       </c>
     </row>
-    <row r="206" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q206">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="207" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q207">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="208" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q208">
         <v>8.6</v>
       </c>
@@ -2833,7 +3167,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>23</v>
       </c>
@@ -2844,1203 +3178,2636 @@
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
       <c r="H231" s="11"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
+      <c r="K231" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+      <c r="O231" s="11"/>
+      <c r="P231" s="11"/>
+      <c r="Q231" s="11"/>
+      <c r="R231" s="11"/>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K232" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1">
+        <v>2019</v>
+      </c>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B233" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6" t="s">
+      <c r="C233" s="6"/>
+      <c r="D233" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="E233" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G232" s="6" t="s">
+      <c r="G233" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H232" s="6" t="s">
+      <c r="H233" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="K233" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L233" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O233" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q233" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R233" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>50.15</v>
       </c>
-      <c r="B233">
+      <c r="B234">
         <v>47.1</v>
       </c>
-      <c r="D233">
+      <c r="D234">
         <v>50.45</v>
       </c>
-      <c r="E233">
+      <c r="E234">
         <v>48.5</v>
       </c>
-      <c r="G233">
+      <c r="G234">
         <v>52.5</v>
       </c>
-      <c r="H233">
+      <c r="H234">
         <v>47.05</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="Q234">
+        <v>54.65</v>
+      </c>
+      <c r="R234">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>49.234000000000002</v>
       </c>
-      <c r="B234">
+      <c r="B235">
         <v>46.484000000000002</v>
       </c>
-      <c r="D234">
+      <c r="D235">
         <v>50.15</v>
       </c>
-      <c r="E234">
+      <c r="E235">
         <v>47.95</v>
       </c>
-      <c r="G234">
+      <c r="G235">
         <v>48.3</v>
       </c>
-      <c r="H234">
+      <c r="H235">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="Q235">
+        <v>53.25</v>
+      </c>
+      <c r="R235">
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>49.216999999999999</v>
       </c>
-      <c r="B235">
+      <c r="B236">
         <v>45.466999999999999</v>
       </c>
-      <c r="D235">
+      <c r="D236">
         <v>49.35</v>
       </c>
-      <c r="E235">
+      <c r="E236">
         <v>45.65</v>
       </c>
-      <c r="G235">
+      <c r="G236">
         <v>48.05</v>
       </c>
-      <c r="H235">
+      <c r="H236">
         <v>44.35</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="Q236">
+        <v>51.45</v>
+      </c>
+      <c r="R236">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>49.05</v>
       </c>
-      <c r="B236">
+      <c r="B237">
         <v>45.267000000000003</v>
       </c>
-      <c r="D236">
+      <c r="D237">
         <v>48.6</v>
       </c>
-      <c r="E236">
+      <c r="E237">
         <v>44.95</v>
       </c>
-      <c r="G236">
+      <c r="G237">
         <v>46.75</v>
-      </c>
-      <c r="H236">
-        <v>42.55</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>47.2</v>
-      </c>
-      <c r="B237">
-        <v>44.933999999999997</v>
-      </c>
-      <c r="D237">
-        <v>48.55</v>
-      </c>
-      <c r="E237">
-        <v>44.25</v>
-      </c>
-      <c r="G237">
-        <v>45.7</v>
       </c>
       <c r="H237">
         <v>42.55</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q237">
+        <v>51</v>
+      </c>
+      <c r="R237">
+        <v>46.65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238">
+        <v>47.2</v>
+      </c>
+      <c r="B238">
+        <v>44.933999999999997</v>
+      </c>
+      <c r="D238">
+        <v>48.55</v>
+      </c>
+      <c r="E238">
+        <v>44.25</v>
+      </c>
+      <c r="G238">
+        <v>45.7</v>
+      </c>
+      <c r="H238">
+        <v>42.55</v>
+      </c>
+      <c r="Q238">
+        <v>50.9</v>
+      </c>
+      <c r="R238">
+        <v>46.45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>47.167000000000002</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <v>44.917000000000002</v>
       </c>
-      <c r="D238">
+      <c r="D239">
         <v>47.85</v>
       </c>
-      <c r="E238">
+      <c r="E239">
         <v>43.65</v>
       </c>
-      <c r="G238">
+      <c r="G239">
         <v>43.6</v>
       </c>
-      <c r="H238">
+      <c r="H239">
         <v>42.05</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="Q239">
+        <v>50.75</v>
+      </c>
+      <c r="R239">
+        <v>46.35</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>46.584000000000003</v>
       </c>
-      <c r="B239">
+      <c r="B240">
         <v>43.366999999999997</v>
       </c>
-      <c r="D239">
+      <c r="D240">
         <v>46.95</v>
       </c>
-      <c r="E239">
+      <c r="E240">
         <v>42.05</v>
       </c>
-      <c r="G239">
+      <c r="G240">
         <v>43.15</v>
       </c>
-      <c r="H239">
+      <c r="H240">
         <v>41.95</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="Q240">
+        <v>49.25</v>
+      </c>
+      <c r="R240">
+        <v>45.75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>45.267000000000003</v>
       </c>
-      <c r="B240">
+      <c r="B241">
         <v>43</v>
       </c>
-      <c r="D240">
+      <c r="D241">
         <v>46.85</v>
       </c>
-      <c r="E240">
+      <c r="E241">
         <v>41.95</v>
       </c>
-      <c r="G240">
+      <c r="G241">
         <v>42.15</v>
       </c>
-      <c r="H240">
+      <c r="H241">
         <v>41.85</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="Q241">
+        <v>48.65</v>
+      </c>
+      <c r="R241">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>44.366999999999997</v>
       </c>
-      <c r="B241">
+      <c r="B242">
         <v>42.634</v>
       </c>
-      <c r="D241">
+      <c r="D242">
         <v>45.55</v>
       </c>
-      <c r="E241">
+      <c r="E242">
         <v>41</v>
       </c>
-      <c r="G241">
+      <c r="G242">
         <v>42.05</v>
       </c>
-      <c r="H241">
+      <c r="H242">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="Q242">
+        <v>47.85</v>
+      </c>
+      <c r="R242">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>43.167000000000002</v>
       </c>
-      <c r="B242">
+      <c r="B243">
         <v>42.616999999999997</v>
       </c>
-      <c r="D242">
+      <c r="D243">
         <v>45.45</v>
       </c>
-      <c r="E242">
+      <c r="E243">
         <v>39.200000000000003</v>
       </c>
-      <c r="G242">
+      <c r="G243">
         <v>41.95</v>
       </c>
-      <c r="H242">
+      <c r="H243">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="Q243">
+        <v>47.35</v>
+      </c>
+      <c r="R243">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>41.216999999999999</v>
       </c>
-      <c r="B243">
+      <c r="B244">
         <v>42.2</v>
       </c>
-      <c r="D243">
+      <c r="D244">
         <v>44.5</v>
       </c>
-      <c r="E243">
+      <c r="E244">
         <v>39.049999999999997</v>
       </c>
-      <c r="G243">
+      <c r="G244">
         <v>41.6</v>
       </c>
-      <c r="H243">
+      <c r="H244">
         <v>40.950000000000003</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="Q244">
+        <v>47.3</v>
+      </c>
+      <c r="R244">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>33.917000000000002</v>
       </c>
-      <c r="B244">
+      <c r="B245">
         <v>41.85</v>
       </c>
-      <c r="D244">
+      <c r="D245">
         <v>44.45</v>
       </c>
-      <c r="E244">
+      <c r="E245">
         <v>37.950000000000003</v>
       </c>
-      <c r="G244">
+      <c r="G245">
         <v>41.5</v>
       </c>
-      <c r="H244">
+      <c r="H245">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B245">
+      <c r="Q245">
+        <v>46.45</v>
+      </c>
+      <c r="R245">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B246">
         <v>40.35</v>
       </c>
-      <c r="D245">
+      <c r="D246">
         <v>44.35</v>
       </c>
-      <c r="E245">
+      <c r="E246">
         <v>37.799999999999997</v>
       </c>
-      <c r="G245">
+      <c r="G246">
         <v>41.45</v>
       </c>
-      <c r="H245">
+      <c r="H246">
         <v>39.799999999999997</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B246">
+      <c r="Q246">
+        <v>46.1</v>
+      </c>
+      <c r="R246">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B247">
         <v>37.799999999999997</v>
       </c>
-      <c r="D246">
+      <c r="D247">
         <v>42.95</v>
       </c>
-      <c r="G246">
+      <c r="G247">
         <v>40.15</v>
       </c>
-      <c r="H246">
+      <c r="H247">
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B247">
+      <c r="Q247">
+        <v>46.1</v>
+      </c>
+      <c r="R247">
+        <v>44.35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B248">
         <v>37.634</v>
       </c>
-      <c r="D247">
+      <c r="D248">
         <v>41.7</v>
       </c>
-      <c r="G247">
+      <c r="G248">
         <v>35.15</v>
       </c>
-      <c r="H247">
+      <c r="H248">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B248">
+      <c r="Q248">
+        <v>45.75</v>
+      </c>
+      <c r="R248">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B249">
         <v>36.299999999999997</v>
       </c>
-      <c r="G248">
+      <c r="G249">
         <v>34.9</v>
       </c>
-      <c r="H248">
+      <c r="H249">
         <v>39.049999999999997</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H249">
+      <c r="Q249">
+        <v>45.7</v>
+      </c>
+      <c r="R249">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H250">
         <v>38.75</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H250">
+      <c r="Q250">
+        <v>45.6</v>
+      </c>
+      <c r="R250">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H251">
         <v>38.049999999999997</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H251">
+      <c r="Q251">
+        <v>45.45</v>
+      </c>
+      <c r="R251">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H252">
         <v>32</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H252">
+      <c r="Q252">
+        <v>45.35</v>
+      </c>
+      <c r="R252">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H253">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="13" t="s">
+      <c r="Q253">
+        <v>45.35</v>
+      </c>
+      <c r="R253">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>45.15</v>
+      </c>
+      <c r="R254">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <v>45.1</v>
+      </c>
+      <c r="R255">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>45.1</v>
+      </c>
+      <c r="R256">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="257" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <v>44.95</v>
+      </c>
+      <c r="R257">
+        <v>43.25</v>
+      </c>
+    </row>
+    <row r="258" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <v>44.9</v>
+      </c>
+      <c r="R258">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="259" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>44.85</v>
+      </c>
+      <c r="R259">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="260" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q260">
+        <v>44.6</v>
+      </c>
+      <c r="R260">
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="261" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q261">
+        <v>44.4</v>
+      </c>
+      <c r="R261">
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="262" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q262">
+        <v>43.85</v>
+      </c>
+      <c r="R262">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="263" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q263">
+        <v>43.85</v>
+      </c>
+      <c r="R263">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="264" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q264">
+        <v>43.45</v>
+      </c>
+      <c r="R264">
+        <v>41.85</v>
+      </c>
+    </row>
+    <row r="265" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q265">
+        <v>43.1</v>
+      </c>
+      <c r="R265">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="266" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q266">
+        <v>42.65</v>
+      </c>
+      <c r="R266">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="267" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q267">
+        <v>42.5</v>
+      </c>
+      <c r="R267">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="268" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q268">
+        <v>42.4</v>
+      </c>
+      <c r="R268">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="269" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q269">
+        <v>42.4</v>
+      </c>
+      <c r="R269">
+        <v>40.85</v>
+      </c>
+    </row>
+    <row r="270" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q270">
+        <v>41.55</v>
+      </c>
+      <c r="R270">
+        <v>40.85</v>
+      </c>
+    </row>
+    <row r="271" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q271">
+        <v>41.45</v>
+      </c>
+      <c r="R271">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q272">
+        <v>41.25</v>
+      </c>
+      <c r="R272">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="273" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q273">
+        <v>41.25</v>
+      </c>
+      <c r="R273">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="274" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q274">
+        <v>41.1</v>
+      </c>
+      <c r="R274">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="275" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q275">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="R275">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q276">
+        <v>40.5</v>
+      </c>
+      <c r="R276">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="277" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q277">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="R277">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="278" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q278">
+        <v>40.25</v>
+      </c>
+      <c r="R278">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="279" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q279">
+        <v>40.15</v>
+      </c>
+      <c r="R279">
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="280" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q280">
+        <v>40.1</v>
+      </c>
+      <c r="R280">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="281" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q281">
+        <v>39.9</v>
+      </c>
+      <c r="R281">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="282" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q282">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="R282">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="283" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q283">
+        <v>39</v>
+      </c>
+      <c r="R283">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="284" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q284">
+        <v>38.9</v>
+      </c>
+      <c r="R284">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="285" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q285">
+        <v>38.9</v>
+      </c>
+      <c r="R285">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="286" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q286">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="287" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q287">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="288" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q288">
+        <v>38.049999999999997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q289">
+        <v>37.85</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q290">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q291">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q292">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q293">
+        <v>35.049999999999997</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q294">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A300" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B260" s="13"/>
-      <c r="C260" s="13"/>
-      <c r="D260" s="13"/>
-      <c r="E260" s="13"/>
-      <c r="F260" s="13"/>
-      <c r="G260" s="13"/>
-      <c r="H260" s="13"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="13"/>
-      <c r="B261" s="13"/>
-      <c r="C261" s="13"/>
-      <c r="D261" s="13"/>
-      <c r="E261" s="13"/>
-      <c r="F261" s="13"/>
-      <c r="G261" s="13"/>
-      <c r="H261" s="13"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="7">
+      <c r="B300" s="13"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
+      <c r="G300" s="13"/>
+      <c r="H300" s="13"/>
+      <c r="K300" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L300" s="13"/>
+      <c r="M300" s="13"/>
+      <c r="N300" s="13"/>
+      <c r="O300" s="13"/>
+      <c r="P300" s="13"/>
+      <c r="Q300" s="13"/>
+      <c r="R300" s="13"/>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A301" s="13"/>
+      <c r="B301" s="13"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="13"/>
+      <c r="K301" s="13"/>
+      <c r="L301" s="13"/>
+      <c r="M301" s="13"/>
+      <c r="N301" s="13"/>
+      <c r="O301" s="13"/>
+      <c r="P301" s="13"/>
+      <c r="Q301" s="13"/>
+      <c r="R301" s="13"/>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A302" s="7">
         <v>2018</v>
       </c>
-      <c r="B262" s="7"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="7"/>
-      <c r="E262" s="7"/>
-      <c r="F262" s="7"/>
-      <c r="G262" s="7">
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+      <c r="G302" s="7">
         <v>2022</v>
       </c>
-      <c r="H262" s="7"/>
-    </row>
-    <row r="263" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="12" t="s">
+      <c r="H302" s="7"/>
+      <c r="K302" s="14">
+        <v>2018</v>
+      </c>
+      <c r="L302" s="14"/>
+      <c r="M302" s="14"/>
+      <c r="N302" s="14">
+        <v>2019</v>
+      </c>
+      <c r="O302" s="14"/>
+      <c r="P302" s="14"/>
+      <c r="Q302" s="14">
+        <v>2022</v>
+      </c>
+      <c r="R302" s="14"/>
+    </row>
+    <row r="303" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B263" s="12"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="7" t="s">
+      <c r="B303" s="12"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E263" s="7" t="s">
+      <c r="E303" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7" t="s">
+      <c r="F303" s="7"/>
+      <c r="G303" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H263" s="7" t="s">
+      <c r="H303" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="7" t="s">
+      <c r="K303" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L303" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M303" s="14"/>
+      <c r="N303" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O303" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P303" s="14"/>
+      <c r="Q303" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R303" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B304" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C264" s="7"/>
-      <c r="D264" s="7" t="s">
+      <c r="C304" s="7"/>
+      <c r="D304" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E264" s="7" t="s">
+      <c r="E304" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F264" s="7"/>
-      <c r="G264" s="7" t="s">
+      <c r="F304" s="7"/>
+      <c r="G304" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H264" s="7" t="s">
+      <c r="H304" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="7">
+      <c r="K304" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L304" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M304" s="14"/>
+      <c r="N304" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O304" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P304" s="14"/>
+      <c r="Q304" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R304" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="7">
         <v>13.625</v>
       </c>
-      <c r="B265" s="7"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="9">
+      <c r="B305" s="7"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="9">
         <v>12.85</v>
       </c>
-      <c r="E265" s="9">
+      <c r="E305" s="9">
         <v>12.45</v>
       </c>
-      <c r="F265" s="7"/>
-      <c r="G265" s="7">
+      <c r="F305" s="7"/>
+      <c r="G305" s="7">
         <v>13.775</v>
       </c>
-      <c r="H265" s="7">
+      <c r="H305" s="7">
         <v>12.574999999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="7">
+      <c r="Q305" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="R305" s="16">
+        <v>13.574999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="7">
         <v>12.6</v>
       </c>
-      <c r="B266" s="7"/>
-      <c r="C266" s="7"/>
-      <c r="D266" s="9">
+      <c r="B306" s="7"/>
+      <c r="C306" s="7"/>
+      <c r="D306" s="9">
         <v>12.55</v>
       </c>
-      <c r="E266" s="9">
+      <c r="E306" s="9">
         <v>11.875</v>
       </c>
-      <c r="F266" s="7"/>
-      <c r="G266" s="7">
+      <c r="F306" s="7"/>
+      <c r="G306" s="7">
         <v>13.574999999999999</v>
       </c>
-      <c r="H266" s="7">
+      <c r="H306" s="7">
         <v>12.574999999999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="7">
+      <c r="Q306" s="18">
+        <v>14.375</v>
+      </c>
+      <c r="R306" s="16">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="7">
         <v>11.6</v>
       </c>
-      <c r="B267" s="7"/>
-      <c r="C267" s="7"/>
-      <c r="D267" s="9">
+      <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="9">
         <v>11.225</v>
       </c>
-      <c r="E267" s="9">
+      <c r="E307" s="9">
         <v>11.4</v>
       </c>
-      <c r="F267" s="7"/>
-      <c r="G267" s="7">
+      <c r="F307" s="7"/>
+      <c r="G307" s="7">
         <v>13.4</v>
       </c>
-      <c r="H267" s="7">
+      <c r="H307" s="7">
         <v>12.55</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="7"/>
-      <c r="B268" s="7"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="7">
+      <c r="Q307" s="18">
+        <v>14.175000000000001</v>
+      </c>
+      <c r="R307" s="16">
+        <v>13.175000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A308" s="7"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="7">
         <v>12.6</v>
       </c>
-      <c r="H268" s="7">
+      <c r="H308" s="7">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
-      <c r="C269" s="7"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="7"/>
-      <c r="H269" s="7">
+      <c r="Q308" s="18">
+        <v>13.925000000000001</v>
+      </c>
+      <c r="R308" s="16">
+        <v>12.975</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A309" s="7"/>
+      <c r="B309" s="7"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" s="7"/>
+      <c r="H309" s="7">
         <v>11.725</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="7"/>
-      <c r="B270" s="7"/>
-      <c r="C270" s="7"/>
-      <c r="D270" s="7"/>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
-      <c r="H270" s="7">
+      <c r="Q309" s="18">
+        <v>13.775</v>
+      </c>
+      <c r="R309" s="16">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A310" s="7"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7">
         <v>11.574999999999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="7"/>
-      <c r="B271" s="7"/>
-      <c r="C271" s="7"/>
-      <c r="D271" s="7"/>
-      <c r="E271" s="7"/>
-      <c r="F271" s="7"/>
-      <c r="G271" s="7"/>
-      <c r="H271" s="7">
+      <c r="Q310" s="18">
+        <v>13.525</v>
+      </c>
+      <c r="R310" s="16">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A311" s="7"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" s="7"/>
+      <c r="H311" s="7">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G272" s="1"/>
-      <c r="H272" s="5"/>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G273" s="1"/>
-      <c r="H273" s="5"/>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G274" s="1"/>
-      <c r="H274" s="5"/>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G275" s="1"/>
-      <c r="H275" s="5"/>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G276" s="1"/>
-      <c r="H276" s="5"/>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
+      <c r="Q311" s="18">
+        <v>13.4</v>
+      </c>
+      <c r="R311" s="16">
+        <v>11.675000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G312" s="1"/>
+      <c r="H312" s="5"/>
+      <c r="Q312" s="18">
+        <v>13.4</v>
+      </c>
+      <c r="R312" s="16">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G313" s="1"/>
+      <c r="H313" s="5"/>
+      <c r="Q313" s="18">
+        <v>13.375</v>
+      </c>
+      <c r="R313" s="16">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G314" s="1"/>
+      <c r="H314" s="5"/>
+      <c r="Q314" s="18">
+        <v>12.824999999999999</v>
+      </c>
+      <c r="R314" s="16">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G315" s="1"/>
+      <c r="H315" s="5"/>
+      <c r="Q315" s="18"/>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G316" s="1"/>
+      <c r="H316" s="5"/>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A317" s="14">
         <v>2018</v>
       </c>
-      <c r="D277" s="1">
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14">
         <v>2019</v>
       </c>
-      <c r="G277" s="1">
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14">
         <v>2022</v>
       </c>
-      <c r="H277" s="5"/>
-      <c r="K277" s="1">
+      <c r="H317" s="14"/>
+      <c r="K317" s="14">
         <v>2018</v>
       </c>
-      <c r="N277" s="1">
+      <c r="L317" s="14"/>
+      <c r="M317" s="14"/>
+      <c r="N317" s="14">
         <v>2019</v>
       </c>
-      <c r="Q277" s="1">
+      <c r="O317" s="14"/>
+      <c r="P317" s="14"/>
+      <c r="Q317" s="14">
         <v>2022</v>
       </c>
-      <c r="R277" s="5"/>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="R317" s="14"/>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A318" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B318" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1" t="s">
+      <c r="C318" s="14"/>
+      <c r="D318" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E278" s="1" t="s">
+      <c r="E318" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G278" s="1" t="s">
+      <c r="F318" s="14"/>
+      <c r="G318" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H278" s="1" t="s">
+      <c r="H318" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K278" s="1" t="s">
+      <c r="K318" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L278" s="1" t="s">
+      <c r="L318" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M278" s="1"/>
-      <c r="N278" s="1" t="s">
+      <c r="M318" s="14"/>
+      <c r="N318" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O278" s="1" t="s">
+      <c r="O318" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q278" s="1" t="s">
+      <c r="P318" s="14"/>
+      <c r="Q318" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R278" s="1" t="s">
+      <c r="R318" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1" t="s">
+      <c r="C319" s="14"/>
+      <c r="D319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G279" s="1" t="s">
+      <c r="F319" s="14"/>
+      <c r="G319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H279" s="1" t="s">
+      <c r="H319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K279" s="1" t="s">
+      <c r="K319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L279" s="1" t="s">
+      <c r="L319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M279" s="1"/>
-      <c r="N279" s="1" t="s">
+      <c r="M319" s="14"/>
+      <c r="N319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O279" s="1" t="s">
+      <c r="O319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q279" s="1" t="s">
+      <c r="P319" s="14"/>
+      <c r="Q319" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R279" s="1" t="s">
+      <c r="R319" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A320">
         <v>14.15</v>
       </c>
-      <c r="B280">
+      <c r="B320">
         <v>12.65</v>
       </c>
-      <c r="D280">
+      <c r="D320">
         <v>14.5</v>
       </c>
-      <c r="E280">
+      <c r="E320">
         <v>14.1</v>
       </c>
-      <c r="G280">
+      <c r="G320">
         <v>13.75</v>
       </c>
-      <c r="H280">
+      <c r="H320">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="Q320" s="15">
+        <v>14.5</v>
+      </c>
+      <c r="R320" s="16">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A321">
         <v>14.1</v>
       </c>
-      <c r="B281">
+      <c r="B321">
         <v>12.75</v>
       </c>
-      <c r="D281">
+      <c r="D321">
         <v>13.25</v>
       </c>
-      <c r="E281">
+      <c r="E321">
         <v>14.1</v>
       </c>
-      <c r="G281">
+      <c r="G321">
         <v>13.9</v>
       </c>
-      <c r="H281">
+      <c r="H321">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="Q321" s="15">
+        <v>13.15</v>
+      </c>
+      <c r="R321" s="16">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A322">
         <v>14.25</v>
       </c>
-      <c r="B282">
+      <c r="B322">
         <v>13.7</v>
       </c>
-      <c r="D282">
+      <c r="D322">
         <v>13.65</v>
       </c>
-      <c r="E282">
+      <c r="E322">
         <v>11.7</v>
       </c>
-      <c r="G282">
+      <c r="G322">
         <v>13.3</v>
       </c>
-      <c r="H282">
+      <c r="H322">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="Q322" s="15">
+        <v>14.65</v>
+      </c>
+      <c r="R322" s="16">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A323">
         <v>13.5</v>
       </c>
-      <c r="B283">
+      <c r="B323">
         <v>11.1</v>
       </c>
-      <c r="D283">
+      <c r="D323">
         <v>11.9</v>
       </c>
-      <c r="E283">
+      <c r="E323">
         <v>12.2</v>
       </c>
-      <c r="G283">
+      <c r="G323">
         <v>13.5</v>
       </c>
-      <c r="H283">
+      <c r="H323">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="Q323" s="15">
+        <v>13.85</v>
+      </c>
+      <c r="R323" s="16">
         <v>13.25</v>
       </c>
-      <c r="D284">
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>13.25</v>
+      </c>
+      <c r="D324">
         <v>12.95</v>
       </c>
-      <c r="E284">
+      <c r="E324">
         <v>10.65</v>
       </c>
-      <c r="G284">
+      <c r="G324">
         <v>13.4</v>
       </c>
-      <c r="H284">
+      <c r="H324">
         <v>11.55</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D285">
+      <c r="Q324" s="15">
+        <v>13.6</v>
+      </c>
+      <c r="R324" s="16">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D325">
         <v>13.25</v>
       </c>
-      <c r="E285">
+      <c r="E325">
         <v>11.85</v>
       </c>
-      <c r="G285">
+      <c r="G325">
         <v>13.75</v>
       </c>
-      <c r="H285">
+      <c r="H325">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G286">
+      <c r="Q325" s="15">
+        <v>14.4</v>
+      </c>
+      <c r="R325" s="16">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G326">
         <v>12.45</v>
       </c>
-      <c r="H286">
+      <c r="H326">
         <v>12.35</v>
       </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G287">
+      <c r="Q326" s="15">
+        <v>13.8</v>
+      </c>
+      <c r="R326" s="16">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G327">
         <v>12.7</v>
       </c>
-      <c r="H287" s="5"/>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G288">
+      <c r="H327" s="5"/>
+      <c r="Q327" s="15">
+        <v>12.8</v>
+      </c>
+      <c r="R327" s="16">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G328">
         <v>12.9</v>
       </c>
-      <c r="H288" s="5"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G289">
+      <c r="H328" s="5"/>
+      <c r="Q328" s="15">
+        <v>14</v>
+      </c>
+      <c r="R328" s="16">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G329">
         <v>13.95</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G290" s="5">
+      <c r="Q329" s="15">
+        <v>13.9</v>
+      </c>
+      <c r="R329" s="16">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G330" s="5">
         <v>13.6</v>
       </c>
-      <c r="H290" s="5"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H291" s="5"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H292" s="5"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H293" s="5"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H295" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="H330" s="5"/>
+      <c r="Q330" s="15">
+        <v>12.8</v>
+      </c>
+      <c r="R330" s="16">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="Q331" s="15">
+        <v>13.1</v>
+      </c>
+      <c r="R331" s="16">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="Q332" s="15">
+        <v>14.2</v>
+      </c>
+      <c r="R332" s="16">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="Q333" s="15">
+        <v>13.8</v>
+      </c>
+      <c r="R333" s="16">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="Q334" s="15">
+        <v>13.7</v>
+      </c>
+      <c r="R334" s="16">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="Q335" s="15">
+        <v>13.1</v>
+      </c>
+      <c r="R335" s="16">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="Q336" s="15">
+        <v>13.3</v>
+      </c>
+      <c r="R336" s="16">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="337" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
+      <c r="Q337" s="15">
+        <v>14.05</v>
+      </c>
+      <c r="R337" s="16">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="338" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
+      <c r="Q338" s="15">
+        <v>13.85</v>
+      </c>
+      <c r="R338" s="16">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="339" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="Q339" s="15">
+        <v>13.95</v>
+      </c>
+      <c r="R339" s="16">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="340" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="Q340" s="15">
+        <v>12.9</v>
+      </c>
+      <c r="R340" s="16">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="341" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="Q341" s="15">
+        <v>11.6</v>
+      </c>
+      <c r="R341" s="16">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="342" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="Q342" s="15">
+        <v>11.85</v>
+      </c>
+      <c r="R342" s="16">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="343" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="Q343" s="15">
+        <v>12.05</v>
+      </c>
+      <c r="R343" s="16">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="344" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="Q344" s="15">
+        <v>12.85</v>
+      </c>
+      <c r="R344" s="16">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="345" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="Q345" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="R345" s="16">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="346" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="Q346" s="15">
+        <v>12.25</v>
+      </c>
+      <c r="R346" s="16">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="347" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="Q347" s="15">
+        <v>13.1</v>
+      </c>
+      <c r="R347" s="16">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="348" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="Q348" s="15">
+        <v>12.9</v>
+      </c>
+      <c r="R348" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="349" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="Q349" s="15">
+        <v>11.7</v>
+      </c>
+      <c r="R349" s="16">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="350" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
+      <c r="Q350" s="15">
+        <v>12.65</v>
+      </c>
+      <c r="R350" s="16">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="351" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="Q351" s="15">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="352" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
+      <c r="Q352" s="15">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="353" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
+      <c r="Q353" s="15">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="354" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="Q354" s="15">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="355" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="Q355" s="15">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="356" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
+      <c r="Q356" s="15"/>
+    </row>
+    <row r="357" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
+    </row>
+    <row r="358" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
+    </row>
+    <row r="359" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+    </row>
+    <row r="360" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+    </row>
+    <row r="361" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
+    </row>
+    <row r="362" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+    </row>
+    <row r="363" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+    </row>
+    <row r="364" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+    </row>
+    <row r="365" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+    </row>
+    <row r="366" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+    </row>
+    <row r="367" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H367" s="5"/>
+    </row>
+    <row r="368" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H368" s="5"/>
+    </row>
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H369" s="5"/>
+    </row>
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A370" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
+      <c r="D370" s="14">
+        <v>2019</v>
+      </c>
+      <c r="E370" s="14"/>
+      <c r="F370" s="14"/>
+      <c r="G370" s="14">
+        <v>2022</v>
+      </c>
+      <c r="H370" s="14"/>
+      <c r="K370" s="14">
+        <v>2018</v>
+      </c>
+      <c r="L370" s="14"/>
+      <c r="M370" s="14"/>
+      <c r="N370" s="14">
+        <v>2019</v>
+      </c>
+      <c r="O370" s="14"/>
+      <c r="P370" s="14"/>
+      <c r="Q370" s="14">
+        <v>2022</v>
+      </c>
+      <c r="R370" s="14"/>
+    </row>
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A371" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C371" s="14"/>
+      <c r="D371" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E371" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F371" s="14"/>
+      <c r="G371" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H371" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K371" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L371" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M371" s="14"/>
+      <c r="N371" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O371" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P371" s="14"/>
+      <c r="Q371" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R371" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A372" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B372" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1" t="s">
+      <c r="C372" s="14"/>
+      <c r="D372" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E296" s="1" t="s">
+      <c r="E372" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G296" s="1" t="s">
+      <c r="F372" s="14"/>
+      <c r="G372" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H296" s="1" t="s">
+      <c r="H372" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="K372" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L372" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M372" s="14"/>
+      <c r="N372" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O372" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P372" s="14"/>
+      <c r="Q372" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R372" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A373">
         <v>14.5</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B373" t="s">
         <v>34</v>
       </c>
-      <c r="D297">
+      <c r="D373">
         <v>14.25</v>
       </c>
-      <c r="E297">
+      <c r="E373">
         <v>13.05</v>
       </c>
-      <c r="G297">
+      <c r="G373">
         <v>13.45</v>
       </c>
-      <c r="H297">
+      <c r="H373">
         <v>12.45</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="Q373" s="17">
+        <v>14.2</v>
+      </c>
+      <c r="R373" s="16">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A374">
         <v>13.9</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B374" t="s">
         <v>20</v>
       </c>
-      <c r="D298">
+      <c r="D374">
         <v>13.35</v>
       </c>
-      <c r="E298">
+      <c r="E374">
         <v>13.05</v>
       </c>
-      <c r="G298">
+      <c r="G374">
         <v>13.45</v>
       </c>
-      <c r="H298">
+      <c r="H374">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="Q374" s="17">
+        <v>14.05</v>
+      </c>
+      <c r="R374" s="16">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A375">
         <v>12.7</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B375" t="s">
         <v>20</v>
       </c>
-      <c r="D299">
+      <c r="D375">
         <v>13.05</v>
       </c>
-      <c r="E299">
+      <c r="E375">
         <v>12.65</v>
       </c>
-      <c r="G299">
+      <c r="G375">
         <v>11.4</v>
       </c>
-      <c r="H299">
+      <c r="H375">
         <v>12</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="Q375" s="17">
+        <v>13.9</v>
+      </c>
+      <c r="R375" s="16">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A376">
         <v>12.3</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B376" t="s">
         <v>20</v>
       </c>
-      <c r="D300">
+      <c r="D376">
         <v>8.75</v>
       </c>
-      <c r="E300">
+      <c r="E376">
         <v>11.45</v>
       </c>
-      <c r="G300">
+      <c r="G376">
         <v>12.85</v>
       </c>
-      <c r="H300">
+      <c r="H376">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="Q376" s="17">
+        <v>13.85</v>
+      </c>
+      <c r="R376" s="16">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A377">
         <v>11.5</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B377" t="s">
         <v>20</v>
       </c>
-      <c r="E301">
+      <c r="E377">
         <v>10.95</v>
       </c>
-      <c r="G301">
+      <c r="G377">
         <v>12.25</v>
       </c>
-      <c r="H301">
+      <c r="H377">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="Q377" s="17">
+        <v>13.75</v>
+      </c>
+      <c r="R377" s="16">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A378">
         <v>10.15</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B378" t="s">
         <v>20</v>
       </c>
-      <c r="E302">
+      <c r="E378">
         <v>10.7</v>
       </c>
-      <c r="G302">
+      <c r="G378">
         <v>10.5</v>
       </c>
-      <c r="H302">
+      <c r="H378">
         <v>11.05</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E303">
+      <c r="Q378" s="17">
+        <v>13.7</v>
+      </c>
+      <c r="R378" s="16">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E379">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H303">
+      <c r="H379">
         <v>10.55</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H304">
+      <c r="Q379" s="17">
+        <v>13.65</v>
+      </c>
+      <c r="R379" s="16">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H380">
         <v>10.55</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G306" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H306" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="Q380" s="17">
+        <v>13.35</v>
+      </c>
+      <c r="R380" s="16">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q381" s="17">
+        <v>13.1</v>
+      </c>
+      <c r="R381" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q382" s="17">
+        <v>12.85</v>
+      </c>
+      <c r="R382" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R383" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R384" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A398" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B398" s="14"/>
+      <c r="C398" s="14"/>
+      <c r="D398" s="14">
+        <v>2019</v>
+      </c>
+      <c r="E398" s="14"/>
+      <c r="F398" s="14"/>
+      <c r="G398" s="14">
+        <v>2022</v>
+      </c>
+      <c r="H398" s="14"/>
+      <c r="K398" s="14">
+        <v>2018</v>
+      </c>
+      <c r="L398" s="14"/>
+      <c r="M398" s="14"/>
+      <c r="N398" s="14">
+        <v>2019</v>
+      </c>
+      <c r="O398" s="14"/>
+      <c r="P398" s="14"/>
+      <c r="Q398" s="14">
+        <v>2022</v>
+      </c>
+      <c r="R398" s="14"/>
+    </row>
+    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A399" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C399" s="14"/>
+      <c r="D399" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E399" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F399" s="14"/>
+      <c r="G399" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H399" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K399" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L399" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M399" s="14"/>
+      <c r="N399" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O399" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P399" s="14"/>
+      <c r="Q399" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R399" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" s="14"/>
+      <c r="D400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F400" s="14"/>
+      <c r="G400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M400" s="14"/>
+      <c r="N400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P400" s="14"/>
+      <c r="Q400" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R400" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A401">
         <v>14</v>
       </c>
-      <c r="B307">
+      <c r="B401">
         <v>13.5</v>
       </c>
-      <c r="D307">
+      <c r="D401">
         <v>13.55</v>
       </c>
-      <c r="E307">
+      <c r="E401">
         <v>11.6</v>
       </c>
-      <c r="G307">
+      <c r="G401">
         <v>13.45</v>
       </c>
-      <c r="H307">
+      <c r="H401">
         <v>12.35</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="Q401" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="R401" s="16">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A402">
         <v>14.9</v>
       </c>
-      <c r="B308">
+      <c r="B402">
         <v>12.4</v>
       </c>
-      <c r="D308">
+      <c r="D402">
         <v>12.5</v>
       </c>
-      <c r="E308">
+      <c r="E402">
         <v>13.05</v>
       </c>
-      <c r="G308">
+      <c r="G402">
         <v>13.1</v>
       </c>
-      <c r="H308">
+      <c r="H402">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="Q402" s="16">
+        <v>14.05</v>
+      </c>
+      <c r="R402" s="16">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A403">
         <v>14.25</v>
       </c>
-      <c r="B309">
+      <c r="B403">
         <v>12.7</v>
       </c>
-      <c r="D309">
+      <c r="D403">
         <v>14.1</v>
       </c>
-      <c r="E309">
+      <c r="E403">
         <v>12.65</v>
       </c>
-      <c r="G309">
+      <c r="G403">
         <v>13.15</v>
       </c>
-      <c r="H309">
+      <c r="H403">
         <v>12.65</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="Q403" s="16">
+        <v>14.2</v>
+      </c>
+      <c r="R403" s="16">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A404">
         <v>14.1</v>
       </c>
-      <c r="B310">
+      <c r="B404">
         <v>8.5</v>
       </c>
-      <c r="D310">
+      <c r="D404">
         <v>12.65</v>
       </c>
-      <c r="E310">
+      <c r="E404">
         <v>10.65</v>
       </c>
-      <c r="G310">
+      <c r="G404">
         <v>13.45</v>
       </c>
-      <c r="H310">
+      <c r="H404">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="Q404" s="16">
+        <v>13.7</v>
+      </c>
+      <c r="R404" s="16">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A405">
         <v>13.4</v>
       </c>
-      <c r="D311">
+      <c r="D405">
         <v>11.4</v>
       </c>
-      <c r="E311">
+      <c r="E405">
         <v>8.9</v>
       </c>
-      <c r="G311">
+      <c r="G405">
         <v>12.85</v>
       </c>
-      <c r="H311">
+      <c r="H405">
         <v>10.55</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D312">
+      <c r="Q405" s="16">
+        <v>13.85</v>
+      </c>
+      <c r="R405" s="16">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D406">
         <v>12.2</v>
       </c>
-      <c r="G312">
+      <c r="G406">
         <v>12.7</v>
       </c>
-      <c r="H312">
+      <c r="H406">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G313">
+      <c r="Q406" s="16">
+        <v>13.65</v>
+      </c>
+      <c r="R406" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G407">
         <v>10.8</v>
       </c>
-      <c r="H313">
+      <c r="H407">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G314">
+      <c r="Q407" s="16">
+        <v>13.1</v>
+      </c>
+      <c r="R407" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G408">
         <v>9.65</v>
       </c>
-      <c r="H314">
+      <c r="H408">
         <v>9.4499999999999993</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G315">
+      <c r="Q408" s="16">
+        <v>12.65</v>
+      </c>
+      <c r="R408" s="16">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G409">
         <v>12.35</v>
       </c>
-      <c r="H315">
+      <c r="H409">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G316">
+      <c r="Q409" s="16">
+        <v>10.6</v>
+      </c>
+      <c r="R409" s="16">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G410">
         <v>11.1</v>
       </c>
-      <c r="H316">
+      <c r="H410">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G317">
+      <c r="Q410" s="16">
+        <v>12.85</v>
+      </c>
+      <c r="R410" s="16">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G411">
         <v>10.6</v>
       </c>
-      <c r="H317">
+      <c r="H411">
         <v>10.95</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H318">
+      <c r="Q411" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="R411" s="16">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H412">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H319">
+      <c r="Q412" s="16">
+        <v>12.25</v>
+      </c>
+      <c r="R412" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H413">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H320">
+      <c r="Q413" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="R413" s="16">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H414">
         <v>9.35</v>
       </c>
-    </row>
-    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H321">
+      <c r="Q414" s="16">
+        <v>11.8</v>
+      </c>
+      <c r="R414" s="16">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H415">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="322" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H322">
+      <c r="Q415" s="16">
+        <v>12.6</v>
+      </c>
+      <c r="R415" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H416">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="323" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H323">
+      <c r="Q416" s="16">
+        <v>12</v>
+      </c>
+      <c r="R416" s="16">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="417" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H417">
         <v>11.95</v>
       </c>
-    </row>
-    <row r="324" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H324">
+      <c r="Q417" s="16">
+        <v>12.8</v>
+      </c>
+      <c r="R417" s="16">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="418" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H418">
         <v>11</v>
       </c>
-    </row>
-    <row r="325" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H325">
+      <c r="Q418" s="16">
+        <v>12.15</v>
+      </c>
+      <c r="R418" s="16">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="419" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H419">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="326" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H326">
+      <c r="Q419" s="16">
+        <v>12</v>
+      </c>
+      <c r="R419" s="16">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="420" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H420">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="327" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H327">
+      <c r="Q420" s="16">
+        <v>11.25</v>
+      </c>
+      <c r="R420" s="16">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="421" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H421">
         <v>11.15</v>
       </c>
+      <c r="Q421" s="16">
+        <v>13.9</v>
+      </c>
+      <c r="R421" s="16">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="422" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q422" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="R422" s="16">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="423" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q423" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="R423" s="16">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="424" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q424" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="R424" s="16">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="425" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q425" s="16">
+        <v>10.75</v>
+      </c>
+      <c r="R425" s="16">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="426" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q426" s="16">
+        <v>12.1</v>
+      </c>
+      <c r="R426" s="16">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="427" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q427" s="16">
+        <v>10.35</v>
+      </c>
+      <c r="R427" s="16">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="428" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q428" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="R428" s="16">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="429" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q429" s="16">
+        <v>10.85</v>
+      </c>
+      <c r="R429" s="16">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="430" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q430" s="16">
+        <v>10.9</v>
+      </c>
+      <c r="R430" s="16">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="431" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q431" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="R431" s="16">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="432" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="Q432" s="16">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="433" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q433" s="16">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="434" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q434" s="16">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="435" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q435" s="16">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="436" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q436" s="16">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="437" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q437" s="16">
+        <v>10.85</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="K18:R18"/>
     <mergeCell ref="K128:R128"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A260:H261"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A300:H301"/>
     <mergeCell ref="A128:H128"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A231:H231"/>
+    <mergeCell ref="K231:R231"/>
+    <mergeCell ref="K300:R301"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/FIG-2022-Score-Comparison.xlsx
+++ b/FIG-2022-Score-Comparison.xlsx
@@ -300,6 +300,11 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,11 +317,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R303" sqref="R303"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U218" sqref="U218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,9 @@
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="11" max="16" width="13.85546875" customWidth="1"/>
+    <col min="11" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.140625" customWidth="1"/>
     <col min="18" max="18" width="15.140625" customWidth="1"/>
   </cols>
@@ -767,26 +769,26 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="K18" s="10" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="K18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1945,26 +1947,26 @@
     </row>
     <row r="126" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="K128" s="11" t="s">
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="K128" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
-      <c r="O128" s="11"/>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11"/>
-      <c r="R128" s="11"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="16"/>
     </row>
     <row r="129" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -3168,26 +3170,26 @@
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
-      <c r="H231" s="11"/>
-      <c r="K231" s="11" t="s">
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+      <c r="H231" s="16"/>
+      <c r="K231" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L231" s="11"/>
-      <c r="M231" s="11"/>
-      <c r="N231" s="11"/>
-      <c r="O231" s="11"/>
-      <c r="P231" s="11"/>
-      <c r="Q231" s="11"/>
-      <c r="R231" s="11"/>
+      <c r="L231" s="16"/>
+      <c r="M231" s="16"/>
+      <c r="N231" s="16"/>
+      <c r="O231" s="16"/>
+      <c r="P231" s="16"/>
+      <c r="Q231" s="16"/>
+      <c r="R231" s="16"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K232" s="1">
@@ -3983,44 +3985,44 @@
     </row>
     <row r="299" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A300" s="13" t="s">
+      <c r="A300" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B300" s="13"/>
-      <c r="C300" s="13"/>
-      <c r="D300" s="13"/>
-      <c r="E300" s="13"/>
-      <c r="F300" s="13"/>
-      <c r="G300" s="13"/>
-      <c r="H300" s="13"/>
-      <c r="K300" s="13" t="s">
+      <c r="B300" s="18"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="18"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="18"/>
+      <c r="H300" s="18"/>
+      <c r="K300" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L300" s="13"/>
-      <c r="M300" s="13"/>
-      <c r="N300" s="13"/>
-      <c r="O300" s="13"/>
-      <c r="P300" s="13"/>
-      <c r="Q300" s="13"/>
-      <c r="R300" s="13"/>
+      <c r="L300" s="18"/>
+      <c r="M300" s="18"/>
+      <c r="N300" s="18"/>
+      <c r="O300" s="18"/>
+      <c r="P300" s="18"/>
+      <c r="Q300" s="18"/>
+      <c r="R300" s="18"/>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A301" s="13"/>
-      <c r="B301" s="13"/>
-      <c r="C301" s="13"/>
-      <c r="D301" s="13"/>
-      <c r="E301" s="13"/>
-      <c r="F301" s="13"/>
-      <c r="G301" s="13"/>
-      <c r="H301" s="13"/>
-      <c r="K301" s="13"/>
-      <c r="L301" s="13"/>
-      <c r="M301" s="13"/>
-      <c r="N301" s="13"/>
-      <c r="O301" s="13"/>
-      <c r="P301" s="13"/>
-      <c r="Q301" s="13"/>
-      <c r="R301" s="13"/>
+      <c r="A301" s="18"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="18"/>
+      <c r="D301" s="18"/>
+      <c r="E301" s="18"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="18"/>
+      <c r="H301" s="18"/>
+      <c r="K301" s="18"/>
+      <c r="L301" s="18"/>
+      <c r="M301" s="18"/>
+      <c r="N301" s="18"/>
+      <c r="O301" s="18"/>
+      <c r="P301" s="18"/>
+      <c r="Q301" s="18"/>
+      <c r="R301" s="18"/>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
@@ -4035,26 +4037,26 @@
         <v>2022</v>
       </c>
       <c r="H302" s="7"/>
-      <c r="K302" s="14">
+      <c r="K302" s="10">
         <v>2018</v>
       </c>
-      <c r="L302" s="14"/>
-      <c r="M302" s="14"/>
-      <c r="N302" s="14">
+      <c r="L302" s="10"/>
+      <c r="M302" s="10"/>
+      <c r="N302" s="10">
         <v>2019</v>
       </c>
-      <c r="O302" s="14"/>
-      <c r="P302" s="14"/>
-      <c r="Q302" s="14">
+      <c r="O302" s="10"/>
+      <c r="P302" s="10"/>
+      <c r="Q302" s="10">
         <v>2022</v>
       </c>
-      <c r="R302" s="14"/>
+      <c r="R302" s="10"/>
     </row>
     <row r="303" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="12" t="s">
+      <c r="A303" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B303" s="12"/>
+      <c r="B303" s="17"/>
       <c r="C303" s="8"/>
       <c r="D303" s="7" t="s">
         <v>17</v>
@@ -4069,24 +4071,24 @@
       <c r="H303" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K303" s="14" t="s">
+      <c r="K303" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L303" s="14" t="s">
+      <c r="L303" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M303" s="14"/>
-      <c r="N303" s="14" t="s">
+      <c r="M303" s="10"/>
+      <c r="N303" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O303" s="14" t="s">
+      <c r="O303" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P303" s="14"/>
-      <c r="Q303" s="14" t="s">
+      <c r="P303" s="10"/>
+      <c r="Q303" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R303" s="14" t="s">
+      <c r="R303" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4111,24 +4113,24 @@
       <c r="H304" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K304" s="14" t="s">
+      <c r="K304" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L304" s="14" t="s">
+      <c r="L304" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M304" s="14"/>
-      <c r="N304" s="14" t="s">
+      <c r="M304" s="10"/>
+      <c r="N304" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O304" s="14" t="s">
+      <c r="O304" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P304" s="14"/>
-      <c r="Q304" s="14" t="s">
+      <c r="P304" s="10"/>
+      <c r="Q304" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R304" s="14" t="s">
+      <c r="R304" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4151,10 +4153,16 @@
       <c r="H305" s="7">
         <v>12.574999999999999</v>
       </c>
-      <c r="Q305" s="18">
+      <c r="N305" s="14">
+        <v>14.45</v>
+      </c>
+      <c r="O305" s="14">
+        <v>14.05</v>
+      </c>
+      <c r="Q305" s="14">
         <v>14.5</v>
       </c>
-      <c r="R305" s="16">
+      <c r="R305" s="12">
         <v>13.574999999999999</v>
       </c>
     </row>
@@ -4177,10 +4185,16 @@
       <c r="H306" s="7">
         <v>12.574999999999999</v>
       </c>
-      <c r="Q306" s="18">
+      <c r="N306" s="14">
+        <v>13.75</v>
+      </c>
+      <c r="O306" s="14">
+        <v>13.15</v>
+      </c>
+      <c r="Q306" s="14">
         <v>14.375</v>
       </c>
-      <c r="R306" s="16">
+      <c r="R306" s="12">
         <v>13.5</v>
       </c>
     </row>
@@ -4203,10 +4217,16 @@
       <c r="H307" s="7">
         <v>12.55</v>
       </c>
-      <c r="Q307" s="18">
+      <c r="N307" s="14">
+        <v>13.266999999999999</v>
+      </c>
+      <c r="O307" s="14">
+        <v>13.083</v>
+      </c>
+      <c r="Q307" s="14">
         <v>14.175000000000001</v>
       </c>
-      <c r="R307" s="16">
+      <c r="R307" s="12">
         <v>13.175000000000001</v>
       </c>
     </row>
@@ -4223,10 +4243,16 @@
       <c r="H308" s="7">
         <v>11.75</v>
       </c>
-      <c r="Q308" s="18">
+      <c r="N308" s="14">
+        <v>12.467000000000001</v>
+      </c>
+      <c r="O308" s="14">
+        <v>13.032999999999999</v>
+      </c>
+      <c r="Q308" s="14">
         <v>13.925000000000001</v>
       </c>
-      <c r="R308" s="16">
+      <c r="R308" s="12">
         <v>12.975</v>
       </c>
     </row>
@@ -4241,10 +4267,16 @@
       <c r="H309" s="7">
         <v>11.725</v>
       </c>
-      <c r="Q309" s="18">
+      <c r="N309" s="14">
+        <v>12.117000000000001</v>
+      </c>
+      <c r="O309" s="14">
+        <v>12.683</v>
+      </c>
+      <c r="Q309" s="14">
         <v>13.775</v>
       </c>
-      <c r="R309" s="16">
+      <c r="R309" s="12">
         <v>12.75</v>
       </c>
     </row>
@@ -4259,10 +4291,16 @@
       <c r="H310" s="7">
         <v>11.574999999999999</v>
       </c>
-      <c r="Q310" s="18">
+      <c r="N310" s="14">
+        <v>7.2670000000000003</v>
+      </c>
+      <c r="O310" s="14">
+        <v>12.483000000000001</v>
+      </c>
+      <c r="Q310" s="14">
         <v>13.525</v>
       </c>
-      <c r="R310" s="16">
+      <c r="R310" s="12">
         <v>12.65</v>
       </c>
     </row>
@@ -4277,163 +4315,163 @@
       <c r="H311" s="7">
         <v>11.25</v>
       </c>
-      <c r="Q311" s="18">
+      <c r="Q311" s="14">
         <v>13.4</v>
       </c>
-      <c r="R311" s="16">
+      <c r="R311" s="12">
         <v>11.675000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G312" s="1"/>
       <c r="H312" s="5"/>
-      <c r="Q312" s="18">
+      <c r="Q312" s="14">
         <v>13.4</v>
       </c>
-      <c r="R312" s="16">
+      <c r="R312" s="12">
         <v>11.25</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G313" s="1"/>
       <c r="H313" s="5"/>
-      <c r="Q313" s="18">
+      <c r="Q313" s="14">
         <v>13.375</v>
       </c>
-      <c r="R313" s="16">
+      <c r="R313" s="12">
         <v>11.15</v>
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G314" s="1"/>
       <c r="H314" s="5"/>
-      <c r="Q314" s="18">
+      <c r="Q314" s="14">
         <v>12.824999999999999</v>
       </c>
-      <c r="R314" s="16">
+      <c r="R314" s="12">
         <v>10.4</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G315" s="1"/>
       <c r="H315" s="5"/>
-      <c r="Q315" s="18"/>
+      <c r="Q315" s="14"/>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G316" s="1"/>
       <c r="H316" s="5"/>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A317" s="14">
+      <c r="A317" s="10">
         <v>2018</v>
       </c>
-      <c r="B317" s="14"/>
-      <c r="C317" s="14"/>
-      <c r="D317" s="14">
+      <c r="B317" s="10"/>
+      <c r="C317" s="10"/>
+      <c r="D317" s="10">
         <v>2019</v>
       </c>
-      <c r="E317" s="14"/>
-      <c r="F317" s="14"/>
-      <c r="G317" s="14">
+      <c r="E317" s="10"/>
+      <c r="F317" s="10"/>
+      <c r="G317" s="10">
         <v>2022</v>
       </c>
-      <c r="H317" s="14"/>
-      <c r="K317" s="14">
+      <c r="H317" s="10"/>
+      <c r="K317" s="10">
         <v>2018</v>
       </c>
-      <c r="L317" s="14"/>
-      <c r="M317" s="14"/>
-      <c r="N317" s="14">
+      <c r="L317" s="10"/>
+      <c r="M317" s="10"/>
+      <c r="N317" s="10">
         <v>2019</v>
       </c>
-      <c r="O317" s="14"/>
-      <c r="P317" s="14"/>
-      <c r="Q317" s="14">
+      <c r="O317" s="10"/>
+      <c r="P317" s="10"/>
+      <c r="Q317" s="10">
         <v>2022</v>
       </c>
-      <c r="R317" s="14"/>
+      <c r="R317" s="10"/>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A318" s="14" t="s">
+      <c r="A318" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B318" s="14" t="s">
+      <c r="B318" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C318" s="14"/>
-      <c r="D318" s="14" t="s">
+      <c r="C318" s="10"/>
+      <c r="D318" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E318" s="14" t="s">
+      <c r="E318" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F318" s="14"/>
-      <c r="G318" s="14" t="s">
+      <c r="F318" s="10"/>
+      <c r="G318" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H318" s="14" t="s">
+      <c r="H318" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K318" s="14" t="s">
+      <c r="K318" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L318" s="14" t="s">
+      <c r="L318" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M318" s="14"/>
-      <c r="N318" s="14" t="s">
+      <c r="M318" s="10"/>
+      <c r="N318" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O318" s="14" t="s">
+      <c r="O318" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P318" s="14"/>
-      <c r="Q318" s="14" t="s">
+      <c r="P318" s="10"/>
+      <c r="Q318" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R318" s="14" t="s">
+      <c r="R318" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A319" s="14" t="s">
+      <c r="A319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B319" s="14" t="s">
+      <c r="B319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C319" s="14"/>
-      <c r="D319" s="14" t="s">
+      <c r="C319" s="10"/>
+      <c r="D319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E319" s="14" t="s">
+      <c r="E319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F319" s="14"/>
-      <c r="G319" s="14" t="s">
+      <c r="F319" s="10"/>
+      <c r="G319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H319" s="14" t="s">
+      <c r="H319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K319" s="14" t="s">
+      <c r="K319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L319" s="14" t="s">
+      <c r="L319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M319" s="14"/>
-      <c r="N319" s="14" t="s">
+      <c r="M319" s="10"/>
+      <c r="N319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O319" s="14" t="s">
+      <c r="O319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P319" s="14"/>
-      <c r="Q319" s="14" t="s">
+      <c r="P319" s="10"/>
+      <c r="Q319" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R319" s="14" t="s">
+      <c r="R319" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4456,10 +4494,16 @@
       <c r="H320">
         <v>13.1</v>
       </c>
-      <c r="Q320" s="15">
+      <c r="N320" s="14">
+        <v>13.766999999999999</v>
+      </c>
+      <c r="O320" s="14">
+        <v>14.766999999999999</v>
+      </c>
+      <c r="Q320" s="11">
         <v>14.5</v>
       </c>
-      <c r="R320" s="16">
+      <c r="R320" s="12">
         <v>13.55</v>
       </c>
     </row>
@@ -4482,10 +4526,16 @@
       <c r="H321">
         <v>12.8</v>
       </c>
-      <c r="Q321" s="15">
+      <c r="N321" s="14">
+        <v>14.532999999999999</v>
+      </c>
+      <c r="O321" s="14">
+        <v>13.6</v>
+      </c>
+      <c r="Q321" s="11">
         <v>13.15</v>
       </c>
-      <c r="R321" s="16">
+      <c r="R321" s="12">
         <v>13.65</v>
       </c>
     </row>
@@ -4508,10 +4558,16 @@
       <c r="H322">
         <v>12.8</v>
       </c>
-      <c r="Q322" s="15">
+      <c r="N322" s="14">
+        <v>14.867000000000001</v>
+      </c>
+      <c r="O322" s="14">
+        <v>14.3</v>
+      </c>
+      <c r="Q322" s="11">
         <v>14.65</v>
       </c>
-      <c r="R322" s="16">
+      <c r="R322" s="12">
         <v>12.75</v>
       </c>
     </row>
@@ -4534,10 +4590,16 @@
       <c r="H323">
         <v>12.7</v>
       </c>
-      <c r="Q323" s="15">
+      <c r="N323" s="14">
+        <v>13.967000000000001</v>
+      </c>
+      <c r="O323" s="14">
+        <v>13.6</v>
+      </c>
+      <c r="Q323" s="11">
         <v>13.85</v>
       </c>
-      <c r="R323" s="16">
+      <c r="R323" s="12">
         <v>13.25</v>
       </c>
     </row>
@@ -4557,10 +4619,16 @@
       <c r="H324">
         <v>11.55</v>
       </c>
-      <c r="Q324" s="15">
+      <c r="N324" s="14">
+        <v>12</v>
+      </c>
+      <c r="O324" s="14">
+        <v>14.3</v>
+      </c>
+      <c r="Q324" s="11">
         <v>13.6</v>
       </c>
-      <c r="R324" s="16">
+      <c r="R324" s="12">
         <v>13.85</v>
       </c>
     </row>
@@ -4577,10 +4645,16 @@
       <c r="H325">
         <v>12.95</v>
       </c>
-      <c r="Q325" s="15">
+      <c r="N325" s="14">
+        <v>12.766999999999999</v>
+      </c>
+      <c r="O325" s="14">
+        <v>12.933</v>
+      </c>
+      <c r="Q325" s="11">
         <v>14.4</v>
       </c>
-      <c r="R325" s="16">
+      <c r="R325" s="12">
         <v>13.15</v>
       </c>
     </row>
@@ -4591,10 +4665,16 @@
       <c r="H326">
         <v>12.35</v>
       </c>
-      <c r="Q326" s="15">
+      <c r="N326" s="14">
         <v>13.8</v>
       </c>
-      <c r="R326" s="16">
+      <c r="O326" s="14">
+        <v>12.6</v>
+      </c>
+      <c r="Q326" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="R326" s="12">
         <v>12.55</v>
       </c>
     </row>
@@ -4603,10 +4683,16 @@
         <v>12.7</v>
       </c>
       <c r="H327" s="5"/>
-      <c r="Q327" s="15">
+      <c r="N327" s="14">
+        <v>13.067</v>
+      </c>
+      <c r="O327" s="14">
+        <v>12.233000000000001</v>
+      </c>
+      <c r="Q327" s="11">
         <v>12.8</v>
       </c>
-      <c r="R327" s="16">
+      <c r="R327" s="12">
         <v>11.6</v>
       </c>
     </row>
@@ -4615,10 +4701,16 @@
         <v>12.9</v>
       </c>
       <c r="H328" s="5"/>
-      <c r="Q328" s="15">
+      <c r="N328" s="14">
         <v>14</v>
       </c>
-      <c r="R328" s="16">
+      <c r="O328" s="14">
+        <v>13.733000000000001</v>
+      </c>
+      <c r="Q328" s="11">
+        <v>14</v>
+      </c>
+      <c r="R328" s="12">
         <v>13.2</v>
       </c>
     </row>
@@ -4626,10 +4718,16 @@
       <c r="G329">
         <v>13.95</v>
       </c>
-      <c r="Q329" s="15">
+      <c r="N329" s="14">
+        <v>12.467000000000001</v>
+      </c>
+      <c r="O329" s="14">
+        <v>13.266999999999999</v>
+      </c>
+      <c r="Q329" s="11">
         <v>13.9</v>
       </c>
-      <c r="R329" s="16">
+      <c r="R329" s="12">
         <v>13.05</v>
       </c>
     </row>
@@ -4638,252 +4736,328 @@
         <v>13.6</v>
       </c>
       <c r="H330" s="5"/>
-      <c r="Q330" s="15">
+      <c r="N330" s="14">
+        <v>12.933</v>
+      </c>
+      <c r="O330" s="14">
+        <v>13.467000000000001</v>
+      </c>
+      <c r="Q330" s="11">
         <v>12.8</v>
       </c>
-      <c r="R330" s="16">
+      <c r="R330" s="12">
         <v>11.75</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G331" s="5"/>
       <c r="H331" s="5"/>
-      <c r="Q331" s="15">
+      <c r="N331" s="14">
+        <v>13.667</v>
+      </c>
+      <c r="O331" s="14">
+        <v>12.532999999999999</v>
+      </c>
+      <c r="Q331" s="11">
         <v>13.1</v>
       </c>
-      <c r="R331" s="16">
+      <c r="R331" s="12">
         <v>12.55</v>
       </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G332" s="5"/>
       <c r="H332" s="5"/>
-      <c r="Q332" s="15">
+      <c r="N332" s="14">
+        <v>12.367000000000001</v>
+      </c>
+      <c r="O332" s="14">
+        <v>11.933</v>
+      </c>
+      <c r="Q332" s="11">
         <v>14.2</v>
       </c>
-      <c r="R332" s="16">
+      <c r="R332" s="12">
         <v>12.45</v>
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G333" s="5"/>
       <c r="H333" s="5"/>
-      <c r="Q333" s="15">
+      <c r="N333" s="14">
+        <v>12.867000000000001</v>
+      </c>
+      <c r="O333" s="14">
+        <v>11.132999999999999</v>
+      </c>
+      <c r="Q333" s="11">
         <v>13.8</v>
       </c>
-      <c r="R333" s="16">
+      <c r="R333" s="12">
         <v>13.25</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G334" s="5"/>
       <c r="H334" s="5"/>
-      <c r="Q334" s="15">
+      <c r="N334" s="14">
+        <v>12.632999999999999</v>
+      </c>
+      <c r="O334" s="14">
+        <v>13.132999999999999</v>
+      </c>
+      <c r="Q334" s="11">
         <v>13.7</v>
       </c>
-      <c r="R334" s="16">
+      <c r="R334" s="12">
         <v>11.75</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G335" s="5"/>
       <c r="H335" s="5"/>
-      <c r="Q335" s="15">
+      <c r="N335" s="14">
+        <v>11.833</v>
+      </c>
+      <c r="O335" s="14">
+        <v>12.266999999999999</v>
+      </c>
+      <c r="Q335" s="11">
         <v>13.1</v>
       </c>
-      <c r="R335" s="16">
+      <c r="R335" s="12">
         <v>11.5</v>
       </c>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G336" s="5"/>
       <c r="H336" s="5"/>
-      <c r="Q336" s="15">
+      <c r="N336" s="14">
+        <v>12.333</v>
+      </c>
+      <c r="O336" s="14">
+        <v>11.733000000000001</v>
+      </c>
+      <c r="Q336" s="11">
         <v>13.3</v>
       </c>
-      <c r="R336" s="16">
+      <c r="R336" s="12">
         <v>11.7</v>
       </c>
     </row>
     <row r="337" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G337" s="5"/>
       <c r="H337" s="5"/>
-      <c r="Q337" s="15">
+      <c r="N337" s="14">
+        <v>13.3</v>
+      </c>
+      <c r="O337" s="14">
+        <v>12.167</v>
+      </c>
+      <c r="Q337" s="11">
         <v>14.05</v>
       </c>
-      <c r="R337" s="16">
+      <c r="R337" s="12">
         <v>12.9</v>
       </c>
     </row>
     <row r="338" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G338" s="5"/>
       <c r="H338" s="5"/>
-      <c r="Q338" s="15">
+      <c r="N338" s="14">
+        <v>12.433</v>
+      </c>
+      <c r="O338" s="14">
+        <v>10.933</v>
+      </c>
+      <c r="Q338" s="11">
         <v>13.85</v>
       </c>
-      <c r="R338" s="16">
+      <c r="R338" s="12">
         <v>11.9</v>
       </c>
     </row>
     <row r="339" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G339" s="5"/>
       <c r="H339" s="5"/>
-      <c r="Q339" s="15">
+      <c r="O339" s="14">
+        <v>12.532999999999999</v>
+      </c>
+      <c r="Q339" s="11">
         <v>13.95</v>
       </c>
-      <c r="R339" s="16">
+      <c r="R339" s="12">
         <v>11.45</v>
       </c>
     </row>
     <row r="340" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G340" s="5"/>
       <c r="H340" s="5"/>
-      <c r="Q340" s="15">
+      <c r="O340" s="14">
+        <v>12.067</v>
+      </c>
+      <c r="Q340" s="11">
         <v>12.9</v>
       </c>
-      <c r="R340" s="16">
+      <c r="R340" s="12">
         <v>12.95</v>
       </c>
     </row>
     <row r="341" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G341" s="5"/>
       <c r="H341" s="5"/>
-      <c r="Q341" s="15">
+      <c r="O341" s="14">
+        <v>11.4</v>
+      </c>
+      <c r="Q341" s="11">
         <v>11.6</v>
       </c>
-      <c r="R341" s="16">
+      <c r="R341" s="12">
         <v>12.15</v>
       </c>
     </row>
     <row r="342" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G342" s="5"/>
       <c r="H342" s="5"/>
-      <c r="Q342" s="15">
+      <c r="O342" s="14">
+        <v>12.367000000000001</v>
+      </c>
+      <c r="Q342" s="11">
         <v>11.85</v>
       </c>
-      <c r="R342" s="16">
+      <c r="R342" s="12">
         <v>12.15</v>
       </c>
     </row>
     <row r="343" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G343" s="5"/>
       <c r="H343" s="5"/>
-      <c r="Q343" s="15">
+      <c r="O343" s="14">
+        <v>11.9</v>
+      </c>
+      <c r="Q343" s="11">
         <v>12.05</v>
       </c>
-      <c r="R343" s="16">
+      <c r="R343" s="12">
         <v>12.1</v>
       </c>
     </row>
     <row r="344" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G344" s="5"/>
       <c r="H344" s="5"/>
-      <c r="Q344" s="15">
+      <c r="O344" s="14">
+        <v>12.132999999999999</v>
+      </c>
+      <c r="Q344" s="11">
         <v>12.85</v>
       </c>
-      <c r="R344" s="16">
+      <c r="R344" s="12">
         <v>11.1</v>
       </c>
     </row>
     <row r="345" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G345" s="5"/>
       <c r="H345" s="5"/>
-      <c r="Q345" s="15">
+      <c r="O345" s="14">
+        <v>13.667</v>
+      </c>
+      <c r="Q345" s="11">
         <v>12.5</v>
       </c>
-      <c r="R345" s="16">
+      <c r="R345" s="12">
         <v>10.55</v>
       </c>
     </row>
     <row r="346" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G346" s="5"/>
       <c r="H346" s="5"/>
-      <c r="Q346" s="15">
+      <c r="O346" s="14"/>
+      <c r="Q346" s="11">
         <v>12.25</v>
       </c>
-      <c r="R346" s="16">
+      <c r="R346" s="12">
         <v>11.85</v>
       </c>
     </row>
     <row r="347" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G347" s="5"/>
       <c r="H347" s="5"/>
-      <c r="Q347" s="15">
+      <c r="Q347" s="11">
         <v>13.1</v>
       </c>
-      <c r="R347" s="16">
+      <c r="R347" s="12">
         <v>11.4</v>
       </c>
     </row>
     <row r="348" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G348" s="5"/>
       <c r="H348" s="5"/>
-      <c r="Q348" s="15">
+      <c r="Q348" s="11">
         <v>12.9</v>
       </c>
-      <c r="R348" s="16">
+      <c r="R348" s="12">
         <v>12.3</v>
       </c>
     </row>
     <row r="349" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G349" s="5"/>
       <c r="H349" s="5"/>
-      <c r="Q349" s="15">
+      <c r="Q349" s="11">
         <v>11.7</v>
       </c>
-      <c r="R349" s="16">
+      <c r="R349" s="12">
         <v>11.55</v>
       </c>
     </row>
     <row r="350" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G350" s="5"/>
       <c r="H350" s="5"/>
-      <c r="Q350" s="15">
+      <c r="Q350" s="11">
         <v>12.65</v>
       </c>
-      <c r="R350" s="16">
+      <c r="R350" s="12">
         <v>9.65</v>
       </c>
     </row>
     <row r="351" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G351" s="5"/>
       <c r="H351" s="5"/>
-      <c r="Q351" s="15">
+      <c r="Q351" s="11">
         <v>10.9</v>
       </c>
     </row>
     <row r="352" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G352" s="5"/>
       <c r="H352" s="5"/>
-      <c r="Q352" s="15">
+      <c r="Q352" s="11">
         <v>14.5</v>
       </c>
     </row>
     <row r="353" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G353" s="5"/>
       <c r="H353" s="5"/>
-      <c r="Q353" s="15">
+      <c r="Q353" s="11">
         <v>14.55</v>
       </c>
     </row>
     <row r="354" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G354" s="5"/>
       <c r="H354" s="5"/>
-      <c r="Q354" s="15">
+      <c r="Q354" s="11">
         <v>13.85</v>
       </c>
     </row>
     <row r="355" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G355" s="5"/>
       <c r="H355" s="5"/>
-      <c r="Q355" s="15">
+      <c r="Q355" s="11">
         <v>13.15</v>
       </c>
     </row>
     <row r="356" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G356" s="5"/>
       <c r="H356" s="5"/>
-      <c r="Q356" s="15"/>
+      <c r="Q356" s="11"/>
     </row>
     <row r="357" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G357" s="5"/>
@@ -4935,116 +5109,116 @@
       <c r="H369" s="5"/>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A370" s="14">
+      <c r="A370" s="10">
         <v>2018</v>
       </c>
-      <c r="B370" s="14"/>
-      <c r="C370" s="14"/>
-      <c r="D370" s="14">
+      <c r="B370" s="10"/>
+      <c r="C370" s="10"/>
+      <c r="D370" s="10">
         <v>2019</v>
       </c>
-      <c r="E370" s="14"/>
-      <c r="F370" s="14"/>
-      <c r="G370" s="14">
+      <c r="E370" s="10"/>
+      <c r="F370" s="10"/>
+      <c r="G370" s="10">
         <v>2022</v>
       </c>
-      <c r="H370" s="14"/>
-      <c r="K370" s="14">
+      <c r="H370" s="10"/>
+      <c r="K370" s="10">
         <v>2018</v>
       </c>
-      <c r="L370" s="14"/>
-      <c r="M370" s="14"/>
-      <c r="N370" s="14">
+      <c r="L370" s="10"/>
+      <c r="M370" s="10"/>
+      <c r="N370" s="10">
         <v>2019</v>
       </c>
-      <c r="O370" s="14"/>
-      <c r="P370" s="14"/>
-      <c r="Q370" s="14">
+      <c r="O370" s="10"/>
+      <c r="P370" s="10"/>
+      <c r="Q370" s="10">
         <v>2022</v>
       </c>
-      <c r="R370" s="14"/>
+      <c r="R370" s="10"/>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A371" s="14" t="s">
+      <c r="A371" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C371" s="14"/>
-      <c r="D371" s="14" t="s">
+      <c r="C371" s="10"/>
+      <c r="D371" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E371" s="14" t="s">
+      <c r="E371" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F371" s="14"/>
-      <c r="G371" s="14" t="s">
+      <c r="F371" s="10"/>
+      <c r="G371" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H371" s="14" t="s">
+      <c r="H371" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K371" s="14" t="s">
+      <c r="K371" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L371" s="14" t="s">
+      <c r="L371" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M371" s="14"/>
-      <c r="N371" s="14" t="s">
+      <c r="M371" s="10"/>
+      <c r="N371" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O371" s="14" t="s">
+      <c r="O371" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P371" s="14"/>
-      <c r="Q371" s="14" t="s">
+      <c r="P371" s="10"/>
+      <c r="Q371" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R371" s="14" t="s">
+      <c r="R371" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C372" s="14"/>
-      <c r="D372" s="14" t="s">
+      <c r="C372" s="10"/>
+      <c r="D372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E372" s="14" t="s">
+      <c r="E372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F372" s="14"/>
-      <c r="G372" s="14" t="s">
+      <c r="F372" s="10"/>
+      <c r="G372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H372" s="14" t="s">
+      <c r="H372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K372" s="14" t="s">
+      <c r="K372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L372" s="14" t="s">
+      <c r="L372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M372" s="14"/>
-      <c r="N372" s="14" t="s">
+      <c r="M372" s="10"/>
+      <c r="N372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O372" s="14" t="s">
+      <c r="O372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P372" s="14"/>
-      <c r="Q372" s="14" t="s">
+      <c r="P372" s="10"/>
+      <c r="Q372" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R372" s="14" t="s">
+      <c r="R372" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5067,10 +5241,16 @@
       <c r="H373">
         <v>12.45</v>
       </c>
-      <c r="Q373" s="17">
+      <c r="N373" s="14">
+        <v>14.333</v>
+      </c>
+      <c r="O373" s="14">
+        <v>14.532999999999999</v>
+      </c>
+      <c r="Q373" s="13">
         <v>14.2</v>
       </c>
-      <c r="R373" s="16">
+      <c r="R373" s="12">
         <v>13.6</v>
       </c>
     </row>
@@ -5093,10 +5273,16 @@
       <c r="H374">
         <v>12.3</v>
       </c>
-      <c r="Q374" s="17">
+      <c r="N374" s="14">
+        <v>14.3</v>
+      </c>
+      <c r="O374" s="14">
+        <v>14.032999999999999</v>
+      </c>
+      <c r="Q374" s="13">
         <v>14.05</v>
       </c>
-      <c r="R374" s="16">
+      <c r="R374" s="12">
         <v>13.45</v>
       </c>
     </row>
@@ -5119,10 +5305,16 @@
       <c r="H375">
         <v>12</v>
       </c>
-      <c r="Q375" s="17">
+      <c r="N375" s="14">
+        <v>14.067</v>
+      </c>
+      <c r="O375" s="14">
+        <v>13.867000000000001</v>
+      </c>
+      <c r="Q375" s="13">
         <v>13.9</v>
       </c>
-      <c r="R375" s="16">
+      <c r="R375" s="12">
         <v>13.25</v>
       </c>
     </row>
@@ -5145,10 +5337,16 @@
       <c r="H376">
         <v>11.8</v>
       </c>
-      <c r="Q376" s="17">
+      <c r="N376" s="14">
+        <v>14.032999999999999</v>
+      </c>
+      <c r="O376" s="14">
+        <v>13.766999999999999</v>
+      </c>
+      <c r="Q376" s="13">
         <v>13.85</v>
       </c>
-      <c r="R376" s="16">
+      <c r="R376" s="12">
         <v>13.15</v>
       </c>
     </row>
@@ -5168,10 +5366,16 @@
       <c r="H377">
         <v>11.8</v>
       </c>
-      <c r="Q377" s="17">
+      <c r="N377" s="14">
+        <v>13.867000000000001</v>
+      </c>
+      <c r="O377" s="14">
+        <v>13.367000000000001</v>
+      </c>
+      <c r="Q377" s="13">
         <v>13.75</v>
       </c>
-      <c r="R377" s="16">
+      <c r="R377" s="12">
         <v>13.1</v>
       </c>
     </row>
@@ -5191,10 +5395,16 @@
       <c r="H378">
         <v>11.05</v>
       </c>
-      <c r="Q378" s="17">
+      <c r="N378" s="14">
+        <v>13.867000000000001</v>
+      </c>
+      <c r="O378" s="14">
+        <v>13.266999999999999</v>
+      </c>
+      <c r="Q378" s="13">
         <v>13.7</v>
       </c>
-      <c r="R378" s="16">
+      <c r="R378" s="12">
         <v>12.6</v>
       </c>
     </row>
@@ -5205,10 +5415,10 @@
       <c r="H379">
         <v>10.55</v>
       </c>
-      <c r="Q379" s="17">
+      <c r="Q379" s="13">
         <v>13.65</v>
       </c>
-      <c r="R379" s="16">
+      <c r="R379" s="12">
         <v>12.5</v>
       </c>
     </row>
@@ -5216,150 +5426,150 @@
       <c r="H380">
         <v>10.55</v>
       </c>
-      <c r="Q380" s="17">
+      <c r="Q380" s="13">
         <v>13.35</v>
       </c>
-      <c r="R380" s="16">
+      <c r="R380" s="12">
         <v>12.45</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q381" s="17">
+      <c r="Q381" s="13">
         <v>13.1</v>
       </c>
-      <c r="R381" s="16">
+      <c r="R381" s="12">
         <v>12.3</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q382" s="17">
+      <c r="Q382" s="13">
         <v>12.85</v>
       </c>
-      <c r="R382" s="16">
+      <c r="R382" s="12">
         <v>12.3</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R383" s="16">
+      <c r="R383" s="12">
         <v>12.3</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R384" s="16">
+      <c r="R384" s="12">
         <v>12.3</v>
       </c>
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A398" s="14">
+      <c r="A398" s="10">
         <v>2018</v>
       </c>
-      <c r="B398" s="14"/>
-      <c r="C398" s="14"/>
-      <c r="D398" s="14">
+      <c r="B398" s="10"/>
+      <c r="C398" s="10"/>
+      <c r="D398" s="10">
         <v>2019</v>
       </c>
-      <c r="E398" s="14"/>
-      <c r="F398" s="14"/>
-      <c r="G398" s="14">
+      <c r="E398" s="10"/>
+      <c r="F398" s="10"/>
+      <c r="G398" s="10">
         <v>2022</v>
       </c>
-      <c r="H398" s="14"/>
-      <c r="K398" s="14">
+      <c r="H398" s="10"/>
+      <c r="K398" s="10">
         <v>2018</v>
       </c>
-      <c r="L398" s="14"/>
-      <c r="M398" s="14"/>
-      <c r="N398" s="14">
+      <c r="L398" s="10"/>
+      <c r="M398" s="10"/>
+      <c r="N398" s="10">
         <v>2019</v>
       </c>
-      <c r="O398" s="14"/>
-      <c r="P398" s="14"/>
-      <c r="Q398" s="14">
+      <c r="O398" s="10"/>
+      <c r="P398" s="10"/>
+      <c r="Q398" s="10">
         <v>2022</v>
       </c>
-      <c r="R398" s="14"/>
+      <c r="R398" s="10"/>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A399" s="14" t="s">
+      <c r="A399" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B399" s="14" t="s">
+      <c r="B399" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C399" s="14"/>
-      <c r="D399" s="14" t="s">
+      <c r="C399" s="10"/>
+      <c r="D399" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E399" s="14" t="s">
+      <c r="E399" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F399" s="14"/>
-      <c r="G399" s="14" t="s">
+      <c r="F399" s="10"/>
+      <c r="G399" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H399" s="14" t="s">
+      <c r="H399" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K399" s="14" t="s">
+      <c r="K399" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L399" s="14" t="s">
+      <c r="L399" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M399" s="14"/>
-      <c r="N399" s="14" t="s">
+      <c r="M399" s="10"/>
+      <c r="N399" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O399" s="14" t="s">
+      <c r="O399" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P399" s="14"/>
-      <c r="Q399" s="14" t="s">
+      <c r="P399" s="10"/>
+      <c r="Q399" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R399" s="14" t="s">
+      <c r="R399" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A400" s="14" t="s">
+      <c r="A400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B400" s="14" t="s">
+      <c r="B400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C400" s="14"/>
-      <c r="D400" s="14" t="s">
+      <c r="C400" s="10"/>
+      <c r="D400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E400" s="14" t="s">
+      <c r="E400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F400" s="14"/>
-      <c r="G400" s="14" t="s">
+      <c r="F400" s="10"/>
+      <c r="G400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H400" s="14" t="s">
+      <c r="H400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K400" s="14" t="s">
+      <c r="K400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L400" s="14" t="s">
+      <c r="L400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M400" s="14"/>
-      <c r="N400" s="14" t="s">
+      <c r="M400" s="10"/>
+      <c r="N400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O400" s="14" t="s">
+      <c r="O400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P400" s="14"/>
-      <c r="Q400" s="14" t="s">
+      <c r="P400" s="10"/>
+      <c r="Q400" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R400" s="14" t="s">
+      <c r="R400" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5382,10 +5592,16 @@
       <c r="H401">
         <v>12.35</v>
       </c>
-      <c r="Q401" s="16">
+      <c r="N401" s="14">
+        <v>13.667</v>
+      </c>
+      <c r="O401" s="14">
+        <v>14.532999999999999</v>
+      </c>
+      <c r="Q401" s="12">
         <v>12.5</v>
       </c>
-      <c r="R401" s="16">
+      <c r="R401" s="12">
         <v>13.45</v>
       </c>
     </row>
@@ -5408,10 +5624,16 @@
       <c r="H402">
         <v>12.25</v>
       </c>
-      <c r="Q402" s="16">
+      <c r="N402" s="14">
+        <v>14.833</v>
+      </c>
+      <c r="O402" s="14">
+        <v>13.367000000000001</v>
+      </c>
+      <c r="Q402" s="12">
         <v>14.05</v>
       </c>
-      <c r="R402" s="16">
+      <c r="R402" s="12">
         <v>13.6</v>
       </c>
     </row>
@@ -5434,10 +5656,16 @@
       <c r="H403">
         <v>12.65</v>
       </c>
-      <c r="Q403" s="16">
+      <c r="N403" s="14">
+        <v>12.333</v>
+      </c>
+      <c r="O403" s="14">
+        <v>14.032999999999999</v>
+      </c>
+      <c r="Q403" s="12">
         <v>14.2</v>
       </c>
-      <c r="R403" s="16">
+      <c r="R403" s="12">
         <v>12.25</v>
       </c>
     </row>
@@ -5460,10 +5688,16 @@
       <c r="H404">
         <v>11.2</v>
       </c>
-      <c r="Q404" s="16">
+      <c r="N404" s="14">
+        <v>12.6</v>
+      </c>
+      <c r="O404" s="14">
+        <v>12.367000000000001</v>
+      </c>
+      <c r="Q404" s="12">
         <v>13.7</v>
       </c>
-      <c r="R404" s="16">
+      <c r="R404" s="12">
         <v>13.1</v>
       </c>
     </row>
@@ -5483,10 +5717,16 @@
       <c r="H405">
         <v>10.55</v>
       </c>
-      <c r="Q405" s="16">
+      <c r="N405" s="14">
+        <v>13.5</v>
+      </c>
+      <c r="O405" s="14">
+        <v>13.233000000000001</v>
+      </c>
+      <c r="Q405" s="12">
         <v>13.85</v>
       </c>
-      <c r="R405" s="16">
+      <c r="R405" s="12">
         <v>13.15</v>
       </c>
     </row>
@@ -5500,10 +5740,16 @@
       <c r="H406">
         <v>11.5</v>
       </c>
-      <c r="Q406" s="16">
+      <c r="N406" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="O406" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="Q406" s="12">
         <v>13.65</v>
       </c>
-      <c r="R406" s="16">
+      <c r="R406" s="12">
         <v>12.3</v>
       </c>
     </row>
@@ -5514,10 +5760,16 @@
       <c r="H407">
         <v>11.7</v>
       </c>
-      <c r="Q407" s="16">
+      <c r="N407" s="14">
+        <v>10.7</v>
+      </c>
+      <c r="O407" s="14">
+        <v>13.867000000000001</v>
+      </c>
+      <c r="Q407" s="12">
         <v>13.1</v>
       </c>
-      <c r="R407" s="16">
+      <c r="R407" s="12">
         <v>12.3</v>
       </c>
     </row>
@@ -5528,10 +5780,16 @@
       <c r="H408">
         <v>9.4499999999999993</v>
       </c>
-      <c r="Q408" s="16">
+      <c r="N408" s="14">
+        <v>13.667</v>
+      </c>
+      <c r="O408" s="14">
+        <v>13.766999999999999</v>
+      </c>
+      <c r="Q408" s="12">
         <v>12.65</v>
       </c>
-      <c r="R408" s="16">
+      <c r="R408" s="12">
         <v>12.5</v>
       </c>
     </row>
@@ -5542,10 +5800,16 @@
       <c r="H409">
         <v>11.6</v>
       </c>
-      <c r="Q409" s="16">
+      <c r="N409" s="14">
+        <v>9.4670000000000005</v>
+      </c>
+      <c r="O409" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="Q409" s="12">
         <v>10.6</v>
       </c>
-      <c r="R409" s="16">
+      <c r="R409" s="12">
         <v>13.25</v>
       </c>
     </row>
@@ -5556,10 +5820,16 @@
       <c r="H410">
         <v>10.9</v>
       </c>
-      <c r="Q410" s="16">
+      <c r="N410" s="14">
+        <v>11.333</v>
+      </c>
+      <c r="O410" s="14">
+        <v>12.9</v>
+      </c>
+      <c r="Q410" s="12">
         <v>12.85</v>
       </c>
-      <c r="R410" s="16">
+      <c r="R410" s="12">
         <v>12.6</v>
       </c>
     </row>
@@ -5570,10 +5840,16 @@
       <c r="H411">
         <v>10.95</v>
       </c>
-      <c r="Q411" s="16">
+      <c r="N411" s="14">
+        <v>12.433</v>
+      </c>
+      <c r="O411" s="14">
+        <v>13.1</v>
+      </c>
+      <c r="Q411" s="12">
         <v>12.7</v>
       </c>
-      <c r="R411" s="16">
+      <c r="R411" s="12">
         <v>11.65</v>
       </c>
     </row>
@@ -5581,10 +5857,16 @@
       <c r="H412">
         <v>9.9499999999999993</v>
       </c>
-      <c r="Q412" s="16">
+      <c r="N412" s="14">
+        <v>13.167</v>
+      </c>
+      <c r="O412" s="14">
+        <v>12.867000000000001</v>
+      </c>
+      <c r="Q412" s="12">
         <v>12.25</v>
       </c>
-      <c r="R412" s="16">
+      <c r="R412" s="12">
         <v>12.3</v>
       </c>
     </row>
@@ -5592,10 +5874,16 @@
       <c r="H413">
         <v>10.1</v>
       </c>
-      <c r="Q413" s="16">
+      <c r="N413" s="14">
+        <v>10.967000000000001</v>
+      </c>
+      <c r="O413" s="14">
+        <v>13.266999999999999</v>
+      </c>
+      <c r="Q413" s="12">
         <v>12.5</v>
       </c>
-      <c r="R413" s="16">
+      <c r="R413" s="12">
         <v>11.55</v>
       </c>
     </row>
@@ -5603,10 +5891,16 @@
       <c r="H414">
         <v>9.35</v>
       </c>
-      <c r="Q414" s="16">
+      <c r="N414" s="14">
         <v>11.8</v>
       </c>
-      <c r="R414" s="16">
+      <c r="O414" s="14">
+        <v>11.933</v>
+      </c>
+      <c r="Q414" s="12">
+        <v>11.8</v>
+      </c>
+      <c r="R414" s="12">
         <v>11.55</v>
       </c>
     </row>
@@ -5614,10 +5908,16 @@
       <c r="H415">
         <v>11.35</v>
       </c>
-      <c r="Q415" s="16">
+      <c r="N415" s="14">
+        <v>5.133</v>
+      </c>
+      <c r="O415" s="14">
+        <v>12.467000000000001</v>
+      </c>
+      <c r="Q415" s="12">
         <v>12.6</v>
       </c>
-      <c r="R415" s="16">
+      <c r="R415" s="12">
         <v>12</v>
       </c>
     </row>
@@ -5625,10 +5925,16 @@
       <c r="H416">
         <v>11.8</v>
       </c>
-      <c r="Q416" s="16">
+      <c r="N416" s="14">
+        <v>11.132999999999999</v>
+      </c>
+      <c r="O416" s="14">
+        <v>12.167</v>
+      </c>
+      <c r="Q416" s="12">
         <v>12</v>
       </c>
-      <c r="R416" s="16">
+      <c r="R416" s="12">
         <v>11.5</v>
       </c>
     </row>
@@ -5636,10 +5942,16 @@
       <c r="H417">
         <v>11.95</v>
       </c>
-      <c r="Q417" s="16">
+      <c r="N417" s="14">
+        <v>14.867000000000001</v>
+      </c>
+      <c r="O417" s="14">
+        <v>11.4</v>
+      </c>
+      <c r="Q417" s="12">
         <v>12.8</v>
       </c>
-      <c r="R417" s="16">
+      <c r="R417" s="12">
         <v>11.8</v>
       </c>
     </row>
@@ -5647,10 +5959,16 @@
       <c r="H418">
         <v>11</v>
       </c>
-      <c r="Q418" s="16">
+      <c r="N418" s="14">
+        <v>9.6669999999999998</v>
+      </c>
+      <c r="O418" s="14">
+        <v>12.8</v>
+      </c>
+      <c r="Q418" s="12">
         <v>12.15</v>
       </c>
-      <c r="R418" s="16">
+      <c r="R418" s="12">
         <v>12.45</v>
       </c>
     </row>
@@ -5658,10 +5976,16 @@
       <c r="H419">
         <v>11.9</v>
       </c>
-      <c r="Q419" s="16">
+      <c r="N419" s="14">
+        <v>15.632999999999999</v>
+      </c>
+      <c r="O419" s="14">
+        <v>10.233000000000001</v>
+      </c>
+      <c r="Q419" s="12">
         <v>12</v>
       </c>
-      <c r="R419" s="16">
+      <c r="R419" s="12">
         <v>11.9</v>
       </c>
     </row>
@@ -5669,10 +5993,16 @@
       <c r="H420">
         <v>9.4</v>
       </c>
-      <c r="Q420" s="16">
+      <c r="N420" s="14">
+        <v>10.766999999999999</v>
+      </c>
+      <c r="O420" s="14">
+        <v>11.367000000000001</v>
+      </c>
+      <c r="Q420" s="12">
         <v>11.25</v>
       </c>
-      <c r="R420" s="16">
+      <c r="R420" s="12">
         <v>10.35</v>
       </c>
     </row>
@@ -5680,120 +6010,145 @@
       <c r="H421">
         <v>11.15</v>
       </c>
-      <c r="Q421" s="16">
+      <c r="O421" s="14">
+        <v>10.1</v>
+      </c>
+      <c r="Q421" s="12">
         <v>13.9</v>
       </c>
-      <c r="R421" s="16">
+      <c r="R421" s="12">
         <v>10.9</v>
       </c>
     </row>
     <row r="422" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q422" s="16">
+      <c r="N422" s="14"/>
+      <c r="O422" s="14">
+        <v>10.733000000000001</v>
+      </c>
+      <c r="Q422" s="12">
         <v>12.5</v>
       </c>
-      <c r="R422" s="16">
+      <c r="R422" s="12">
         <v>10.85</v>
       </c>
     </row>
     <row r="423" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q423" s="16">
+      <c r="O423" s="14">
+        <v>11.132999999999999</v>
+      </c>
+      <c r="Q423" s="12">
         <v>10.5</v>
       </c>
-      <c r="R423" s="16">
+      <c r="R423" s="12">
         <v>12.3</v>
       </c>
     </row>
     <row r="424" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q424" s="16">
+      <c r="O424" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q424" s="12">
         <v>11.9</v>
       </c>
-      <c r="R424" s="16">
+      <c r="R424" s="12">
         <v>10.55</v>
       </c>
     </row>
     <row r="425" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q425" s="16">
+      <c r="O425" s="14">
+        <v>9.7330000000000005</v>
+      </c>
+      <c r="Q425" s="12">
         <v>10.75</v>
       </c>
-      <c r="R425" s="16">
+      <c r="R425" s="12">
         <v>11.2</v>
       </c>
     </row>
     <row r="426" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q426" s="16">
+      <c r="O426" s="14">
+        <v>12.132999999999999</v>
+      </c>
+      <c r="Q426" s="12">
         <v>12.1</v>
       </c>
-      <c r="R426" s="16">
+      <c r="R426" s="12">
         <v>11.4</v>
       </c>
     </row>
     <row r="427" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q427" s="16">
+      <c r="O427" s="14">
+        <v>12.067</v>
+      </c>
+      <c r="Q427" s="12">
         <v>10.35</v>
       </c>
-      <c r="R427" s="16">
+      <c r="R427" s="12">
         <v>10.9</v>
       </c>
     </row>
     <row r="428" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q428" s="16">
+      <c r="O428" s="14">
+        <v>13.233000000000001</v>
+      </c>
+      <c r="Q428" s="12">
         <v>11.9</v>
       </c>
-      <c r="R428" s="16">
+      <c r="R428" s="12">
         <v>11.15</v>
       </c>
     </row>
     <row r="429" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q429" s="16">
+      <c r="Q429" s="12">
         <v>10.85</v>
       </c>
-      <c r="R429" s="16">
+      <c r="R429" s="12">
         <v>11.25</v>
       </c>
     </row>
     <row r="430" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q430" s="16">
+      <c r="Q430" s="12">
         <v>10.9</v>
       </c>
-      <c r="R430" s="16">
+      <c r="R430" s="12">
         <v>10.95</v>
       </c>
     </row>
     <row r="431" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q431" s="16">
+      <c r="Q431" s="12">
         <v>12.5</v>
       </c>
-      <c r="R431" s="16">
+      <c r="R431" s="12">
         <v>11.5</v>
       </c>
     </row>
     <row r="432" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="Q432" s="16">
+      <c r="Q432" s="12">
         <v>11.15</v>
       </c>
     </row>
     <row r="433" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q433" s="16">
+      <c r="Q433" s="12">
         <v>13.35</v>
       </c>
     </row>
     <row r="434" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q434" s="16">
+      <c r="Q434" s="12">
         <v>13.75</v>
       </c>
     </row>
     <row r="435" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q435" s="16">
+      <c r="Q435" s="12">
         <v>12.45</v>
       </c>
     </row>
     <row r="436" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q436" s="16">
+      <c r="Q436" s="12">
         <v>12.75</v>
       </c>
     </row>
     <row r="437" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q437" s="16">
+      <c r="Q437" s="12">
         <v>10.85</v>
       </c>
     </row>

--- a/FIG-2022-Score-Comparison.xlsx
+++ b/FIG-2022-Score-Comparison.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
   <si>
     <t>WAG</t>
   </si>
   <si>
     <t>MAG</t>
-  </si>
-  <si>
-    <t>AA</t>
   </si>
   <si>
     <t>Floor</t>
@@ -149,9 +146,6 @@
     <t>MAG: Men's Artistic Gymnastics</t>
   </si>
   <si>
-    <t>AA: Overall</t>
-  </si>
-  <si>
     <t>1. Overall scores were included only if all 4 pieces of apparatus were competed on.</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>Summary:</t>
   </si>
   <si>
-    <t xml:space="preserve">WAG Vault: </t>
-  </si>
-  <si>
     <t>Difference compared to year 2022. (Positive number means that year scored higher than 2022)</t>
   </si>
   <si>
@@ -183,6 +174,21 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>WAG Vault</t>
+  </si>
+  <si>
+    <t>WAG Beam</t>
+  </si>
+  <si>
+    <t>WAG Overall</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>MAG Floor</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -349,6 +355,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -638,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -676,7 +685,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>-0.5</v>
@@ -684,7 +693,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-0.2</v>
@@ -692,7 +701,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>-0.4</v>
@@ -703,7 +712,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>-0.1</v>
@@ -713,24 +722,37 @@
       <c r="A7" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>48</v>
+      <c r="A9" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="17">
         <v>0.51012500000000216</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="17">
+        <v>0.41862499999999869</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2.4853750000000048</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.19166666666666465</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -744,14 +766,20 @@
       <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>0.51825000000000188</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="17">
+        <v>0.43249999999999922</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2.2675625000000039</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3.3333333333333215E-2</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -765,14 +793,20 @@
       <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="17">
         <v>1.1372083333333336</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="17">
+        <v>-0.13137500000000379</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3.4539583333333468</v>
+      </c>
+      <c r="E13" s="17">
+        <v>-4.1071428571425983E-2</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -786,16 +820,18 @@
       <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="17">
         <v>-0.36612500000000026</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="C14" s="17">
+        <v>0.65750000000000064</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2.2590384615384664</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.43783333333333552</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -807,14 +843,18 @@
       <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="17">
         <v>0.26791666666666636</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="17">
+        <v>0.44743589743589673</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1.6203371481595781</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.0306666666666668</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -828,15 +868,18 @@
       <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="17">
         <v>0.27200956937798892</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="17">
+        <v>1.6142857142857139</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1.0694291819291877</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2.0209090909090932</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -849,14 +892,20 @@
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="17">
         <v>-0.33125000000000071</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="17">
+        <v>0.29826086956521713</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.42651639344261838</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.67738095238095042</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -870,121 +919,217 @@
       <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="17">
         <v>1.2772727272727273</v>
       </c>
+      <c r="C18" s="17">
+        <v>0.37297619047618902</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1.4272435897435898</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.62424242424242671</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="B19" s="17">
         <v>0.71590109890109943</v>
       </c>
+      <c r="C19" s="17">
+        <v>0.1870843989769817</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
+        <v>0.27238095238095106</v>
+      </c>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="B20" s="17">
         <v>0.19223529411764595</v>
       </c>
+      <c r="C20" s="17">
+        <v>0.60916666666666508</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
+        <v>6.2912912912912233E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="B21" s="17">
         <v>0.58736263736264327</v>
       </c>
+      <c r="C21" s="17">
+        <v>0.65663594470045972</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
+        <v>-0.1914446002805068</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="17">
         <v>0.27461538461538559</v>
       </c>
+      <c r="C22" s="17">
+        <v>0.59178690344062623</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
+        <v>-0.27151486486486398</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="B23" s="17">
         <v>0.39714861751152242</v>
       </c>
+      <c r="C23" s="17">
+        <v>0.33714285714285985</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
+        <v>0.50179211469534124</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="17">
         <v>0.42201257861635355</v>
       </c>
+      <c r="C24" s="17">
+        <v>0.69157681940700932</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="B25" s="17">
         <v>0.12383512544802855</v>
       </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B26" s="17">
         <v>0.44721583064887582</v>
       </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="19">
         <f>AVERAGE(B11:B26)</f>
         <v>0.40285836649201712</v>
       </c>
+      <c r="C27" s="19">
+        <f>AVERAGE(C11:C26)</f>
+        <v>0.51311444729268663</v>
+      </c>
+      <c r="D27" s="19">
+        <f>AVERAGE(D11:D26)</f>
+        <v>1.8761825760183495</v>
+      </c>
+      <c r="E27" s="19">
+        <f>AVERAGE(E11:E26)</f>
+        <v>0.41146827336960601</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="19">
         <f>MEDIAN(B11:B26)</f>
         <v>0.40958059806393798</v>
       </c>
+      <c r="C28" s="19">
+        <f>MEDIAN(C11:C26)</f>
+        <v>0.43996794871794798</v>
+      </c>
+      <c r="D28" s="19">
+        <f>MEDIAN(D11:D26)</f>
+        <v>1.9396878048490223</v>
+      </c>
+      <c r="E28" s="19">
+        <f>MEDIAN(E11:E26)</f>
+        <v>0.27238095238095106</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A34" s="5"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -994,43 +1139,43 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
@@ -1080,7 +1225,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1090,7 +1235,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="K52" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
@@ -1102,44 +1247,44 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
@@ -1627,44 +1772,44 @@
     </row>
     <row r="77" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M77" s="6"/>
       <c r="N77" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P77" s="6"/>
       <c r="Q77" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -3377,7 +3522,7 @@
     <row r="168" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -3387,7 +3532,7 @@
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
       <c r="K170" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
@@ -3419,42 +3564,42 @@
     </row>
     <row r="172" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H172" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="K172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L172" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="L172" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="M172" s="6"/>
       <c r="N172" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O172" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R172" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="R172" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
@@ -3477,10 +3622,10 @@
         <v>12.567</v>
       </c>
       <c r="K173" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L173" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N173" s="10">
         <v>13.65</v>
@@ -3831,42 +3976,42 @@
     </row>
     <row r="192" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E192" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H192" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H192" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="K192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L192" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="L192" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="M192" s="6"/>
       <c r="N192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O192" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O192" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="Q192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R192" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="R192" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -5695,7 +5840,7 @@
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -5705,7 +5850,7 @@
       <c r="G289" s="12"/>
       <c r="H289" s="12"/>
       <c r="K289" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L289" s="12"/>
       <c r="M289" s="12"/>
@@ -5741,42 +5886,42 @@
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E291" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="G291" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H291" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H291" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="K291" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L291" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="L291" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="M291" s="6"/>
       <c r="N291" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O291" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O291" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="Q291" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R291" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="R291" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
@@ -7477,86 +7622,86 @@
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B385" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="C385" s="7"/>
       <c r="D385" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E385" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E385" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F385" s="7"/>
       <c r="G385" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H385" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H385" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K385" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L385" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L385" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M385" s="7"/>
       <c r="N385" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O385" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="O385" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="P385" s="7"/>
       <c r="Q385" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R385" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="R385" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C386" s="7"/>
       <c r="D386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F386" s="7"/>
       <c r="G386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M386" s="7"/>
       <c r="N386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P386" s="7"/>
       <c r="Q386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R386" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:18" x14ac:dyDescent="0.25">
@@ -7564,7 +7709,7 @@
         <v>14.5</v>
       </c>
       <c r="B387" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D387">
         <v>14.25</v>
@@ -7579,10 +7724,10 @@
         <v>12.45</v>
       </c>
       <c r="K387" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L387" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N387" s="10">
         <v>14.333</v>
@@ -7602,7 +7747,7 @@
         <v>13.9</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D388">
         <v>13.35</v>
@@ -7634,7 +7779,7 @@
         <v>12.7</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D389">
         <v>13.05</v>
@@ -7666,7 +7811,7 @@
         <v>12.3</v>
       </c>
       <c r="B390" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D390">
         <v>8.75</v>
@@ -7698,7 +7843,7 @@
         <v>11.5</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E391">
         <v>10.95</v>
@@ -7727,7 +7872,7 @@
         <v>10.15</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E392">
         <v>10.7</v>
@@ -7894,86 +8039,86 @@
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B405" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="C405" s="7"/>
       <c r="D405" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E405" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E405" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F405" s="7"/>
       <c r="G405" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H405" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H405" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K405" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L405" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L405" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M405" s="7"/>
       <c r="N405" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O405" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="O405" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="P405" s="7"/>
       <c r="Q405" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R405" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="R405" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C406" s="7"/>
       <c r="D406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F406" s="7"/>
       <c r="G406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M406" s="7"/>
       <c r="N406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P406" s="7"/>
       <c r="Q406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R406" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
@@ -8791,12 +8936,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
